--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>932134.4630529952</v>
+        <v>931507.4206300683</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.029273655</v>
+        <v>504792.0292736556</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8647243.581100086</v>
+        <v>8647243.581100084</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="C11" t="n">
-        <v>146.4499769106676</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5829390575859</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.260172663732827</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>36.72024109999219</v>
+        <v>36.72024109999227</v>
       </c>
       <c r="V11" t="n">
-        <v>118.0349185126516</v>
+        <v>95.38785748298267</v>
       </c>
       <c r="W11" t="n">
         <v>143.3350179906085</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.95980415968019</v>
+        <v>146.4499769106676</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7169426335313923</v>
+        <v>0.7169426335314776</v>
       </c>
       <c r="V12" t="n">
-        <v>10.53710347578286</v>
+        <v>10.53710347578294</v>
       </c>
       <c r="W12" t="n">
-        <v>23.32814722865655</v>
+        <v>23.32814722865663</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.27407766563941</v>
+        <v>14.27407766563949</v>
       </c>
       <c r="U13" t="n">
-        <v>68.73102716155475</v>
+        <v>68.73102716155483</v>
       </c>
       <c r="V13" t="n">
-        <v>42.55338854679511</v>
+        <v>42.55338854679519</v>
       </c>
       <c r="W13" t="n">
-        <v>67.72027461740836</v>
+        <v>67.72027461740845</v>
       </c>
       <c r="X13" t="n">
-        <v>13.36537661321148</v>
+        <v>13.36537661321157</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.240244369279168</v>
+        <v>4.240244369279253</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.0731800703234</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>146.4499769106676</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>146.4499769106676</v>
+        <v>7.844845239620358</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>108.5829390575861</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.260172663732996</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>36.72024109999236</v>
       </c>
       <c r="V14" t="n">
-        <v>118.0349185126516</v>
+        <v>118.0349185126517</v>
       </c>
       <c r="W14" t="n">
-        <v>143.3350179906085</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7169426335314207</v>
+        <v>0.7169426335315628</v>
       </c>
       <c r="V15" t="n">
-        <v>10.53710347578289</v>
+        <v>10.53710347578303</v>
       </c>
       <c r="W15" t="n">
-        <v>23.32814722865658</v>
+        <v>23.32814722865672</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.27407766563944</v>
+        <v>14.27407766563958</v>
       </c>
       <c r="U16" t="n">
-        <v>68.73102716155478</v>
+        <v>68.73102716155492</v>
       </c>
       <c r="V16" t="n">
-        <v>42.55338854679513</v>
+        <v>42.55338854679528</v>
       </c>
       <c r="W16" t="n">
-        <v>67.72027461740839</v>
+        <v>67.72027461740853</v>
       </c>
       <c r="X16" t="n">
-        <v>13.36537661321151</v>
+        <v>13.36537661321165</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.240244369279196</v>
+        <v>4.240244369279338</v>
       </c>
     </row>
     <row r="17">
@@ -1853,10 +1853,10 @@
         <v>66.6803607870018</v>
       </c>
       <c r="F17" t="n">
-        <v>85.85217687497887</v>
+        <v>85.85217687497897</v>
       </c>
       <c r="G17" t="n">
-        <v>87.26445761256149</v>
+        <v>87.26445761256142</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>195.6110344139531</v>
       </c>
       <c r="E29" t="n">
-        <v>217.3531719838586</v>
+        <v>217.3531719838587</v>
       </c>
       <c r="F29" t="n">
         <v>236.5249880718358</v>
       </c>
       <c r="G29" t="n">
-        <v>237.9372688094183</v>
+        <v>237.9372688094184</v>
       </c>
       <c r="H29" t="n">
-        <v>150.6728111968568</v>
+        <v>150.6728111968569</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>46.35004480300375</v>
+        <v>46.35004480300378</v>
       </c>
       <c r="U29" t="n">
-        <v>78.81011323926313</v>
+        <v>78.81011323926316</v>
       </c>
       <c r="V29" t="n">
         <v>160.1247906519225</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>12.18999306596234</v>
+        <v>12.18999306596237</v>
       </c>
       <c r="U30" t="n">
-        <v>42.80681477280233</v>
+        <v>42.80681477280236</v>
       </c>
       <c r="V30" t="n">
-        <v>52.62697561505379</v>
+        <v>52.62697561505382</v>
       </c>
       <c r="W30" t="n">
-        <v>65.41801936792749</v>
+        <v>65.41801936792751</v>
       </c>
       <c r="X30" t="n">
-        <v>22.45312752988778</v>
+        <v>22.45312752988781</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.11142237582138</v>
+        <v>17.11142237582141</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.235124286440453</v>
+        <v>8.235124286440481</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.01527457283483</v>
+        <v>34.01527457283485</v>
       </c>
       <c r="T31" t="n">
-        <v>56.36394980491035</v>
+        <v>56.36394980491038</v>
       </c>
       <c r="U31" t="n">
         <v>110.8208993008257</v>
       </c>
       <c r="V31" t="n">
-        <v>84.64326068606604</v>
+        <v>84.64326068606607</v>
       </c>
       <c r="W31" t="n">
         <v>109.8101467566793</v>
       </c>
       <c r="X31" t="n">
-        <v>55.45524875248242</v>
+        <v>55.45524875248245</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.33011650855011</v>
+        <v>46.33011650855013</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>216.6184134117435</v>
       </c>
       <c r="C32" t="n">
-        <v>204.6297303694252</v>
+        <v>204.6297303694253</v>
       </c>
       <c r="D32" t="n">
         <v>195.6110344139532</v>
       </c>
       <c r="E32" t="n">
-        <v>217.3531719838587</v>
+        <v>217.3531719838588</v>
       </c>
       <c r="F32" t="n">
         <v>236.5249880718359</v>
       </c>
       <c r="G32" t="n">
-        <v>237.9372688094184</v>
+        <v>237.9372688094185</v>
       </c>
       <c r="H32" t="n">
-        <v>150.6728111968569</v>
+        <v>150.672811196857</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3080,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.35004480300387</v>
+        <v>46.3500448030039</v>
       </c>
       <c r="U32" t="n">
-        <v>78.81011323926325</v>
+        <v>78.81011323926327</v>
       </c>
       <c r="V32" t="n">
         <v>160.1247906519226</v>
@@ -3092,7 +3092,7 @@
         <v>185.4248901298795</v>
       </c>
       <c r="X32" t="n">
-        <v>204.7251483626261</v>
+        <v>204.7251483626262</v>
       </c>
       <c r="Y32" t="n">
         <v>216.1217461588249</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.18999306596245</v>
+        <v>12.18999306596248</v>
       </c>
       <c r="U33" t="n">
-        <v>42.80681477280245</v>
+        <v>42.80681477280248</v>
       </c>
       <c r="V33" t="n">
-        <v>52.62697561505391</v>
+        <v>52.62697561505394</v>
       </c>
       <c r="W33" t="n">
-        <v>65.4180193679276</v>
+        <v>65.41801936792763</v>
       </c>
       <c r="X33" t="n">
-        <v>22.45312752988789</v>
+        <v>22.45312752988792</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.11142237582149</v>
+        <v>17.11142237582152</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.235124286440566</v>
+        <v>8.235124286440595</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.01527457283494</v>
+        <v>34.01527457283497</v>
       </c>
       <c r="T34" t="n">
-        <v>56.36394980491046</v>
+        <v>56.36394980491049</v>
       </c>
       <c r="U34" t="n">
         <v>110.8208993008258</v>
       </c>
       <c r="V34" t="n">
-        <v>84.64326068606616</v>
+        <v>84.64326068606618</v>
       </c>
       <c r="W34" t="n">
         <v>109.8101467566794</v>
       </c>
       <c r="X34" t="n">
-        <v>55.45524875248253</v>
+        <v>55.45524875248256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.33011650855022</v>
+        <v>46.33011650855025</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>172.8997156890574</v>
       </c>
       <c r="C35" t="n">
-        <v>160.9110326467391</v>
+        <v>160.9110326467392</v>
       </c>
       <c r="D35" t="n">
         <v>151.8923366912671</v>
       </c>
       <c r="E35" t="n">
-        <v>173.6344742611726</v>
+        <v>173.6344742611727</v>
       </c>
       <c r="F35" t="n">
         <v>192.8062903491498</v>
       </c>
       <c r="G35" t="n">
-        <v>194.2185710867323</v>
+        <v>194.2185710867324</v>
       </c>
       <c r="H35" t="n">
-        <v>106.9541134741708</v>
+        <v>106.9541134741709</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.631347080317738</v>
+        <v>2.631347080317795</v>
       </c>
       <c r="U35" t="n">
-        <v>35.09141551657711</v>
+        <v>35.09141551657717</v>
       </c>
       <c r="V35" t="n">
         <v>116.4060929292365</v>
@@ -3329,7 +3329,7 @@
         <v>141.7061924071934</v>
       </c>
       <c r="X35" t="n">
-        <v>161.00645063994</v>
+        <v>161.0064506399401</v>
       </c>
       <c r="Y35" t="n">
         <v>172.4030484361388</v>
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.908277892367778</v>
+        <v>8.908277892367835</v>
       </c>
       <c r="W36" t="n">
-        <v>21.69932164524147</v>
+        <v>21.69932164524153</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.64525208222433</v>
+        <v>12.64525208222438</v>
       </c>
       <c r="U37" t="n">
-        <v>67.10220157813967</v>
+        <v>67.10220157813973</v>
       </c>
       <c r="V37" t="n">
-        <v>40.92456296338003</v>
+        <v>40.92456296338008</v>
       </c>
       <c r="W37" t="n">
-        <v>66.09144903399329</v>
+        <v>66.09144903399334</v>
       </c>
       <c r="X37" t="n">
-        <v>11.7365510297964</v>
+        <v>11.73655102979646</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.611418785864089</v>
+        <v>2.611418785864146</v>
       </c>
     </row>
     <row r="38">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.8997156890573</v>
+        <v>172.8997156890572</v>
       </c>
       <c r="C41" t="n">
-        <v>160.9110326467391</v>
+        <v>160.911032646739</v>
       </c>
       <c r="D41" t="n">
         <v>151.892336691267</v>
       </c>
       <c r="E41" t="n">
-        <v>173.6344742611726</v>
+        <v>173.6344742611725</v>
       </c>
       <c r="F41" t="n">
         <v>192.8062903491497</v>
       </c>
       <c r="G41" t="n">
-        <v>194.2185710867323</v>
+        <v>194.2185710867322</v>
       </c>
       <c r="H41" t="n">
-        <v>106.9541134741708</v>
+        <v>106.9541134741707</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.631347080317719</v>
+        <v>2.631347080317633</v>
       </c>
       <c r="U41" t="n">
-        <v>35.09141551657708</v>
+        <v>35.09141551657699</v>
       </c>
       <c r="V41" t="n">
-        <v>116.4060929292365</v>
+        <v>116.4060929292364</v>
       </c>
       <c r="W41" t="n">
-        <v>141.7061924071934</v>
+        <v>141.7061924071933</v>
       </c>
       <c r="X41" t="n">
-        <v>161.00645063994</v>
+        <v>161.0064506399399</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.4030484361387</v>
+        <v>172.4030484361386</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>8.908277892367749</v>
+        <v>8.908277892367664</v>
       </c>
       <c r="W42" t="n">
-        <v>21.69932164524144</v>
+        <v>21.69932164524135</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.6452520822243</v>
+        <v>12.64525208222421</v>
       </c>
       <c r="U43" t="n">
-        <v>67.10220157813964</v>
+        <v>67.10220157813956</v>
       </c>
       <c r="V43" t="n">
-        <v>40.92456296338</v>
+        <v>40.92456296337991</v>
       </c>
       <c r="W43" t="n">
-        <v>66.09144903399326</v>
+        <v>66.09144903399317</v>
       </c>
       <c r="X43" t="n">
-        <v>11.73655102979637</v>
+        <v>11.73655102979629</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.611418785864061</v>
+        <v>2.611418785863975</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.8997156890574</v>
+        <v>172.8997156890573</v>
       </c>
       <c r="C44" t="n">
-        <v>160.9110326467392</v>
+        <v>160.9110326467391</v>
       </c>
       <c r="D44" t="n">
-        <v>151.8923366912671</v>
+        <v>151.892336691267</v>
       </c>
       <c r="E44" t="n">
-        <v>173.6344742611727</v>
+        <v>173.6344742611726</v>
       </c>
       <c r="F44" t="n">
-        <v>192.8062903491498</v>
+        <v>192.8062903491497</v>
       </c>
       <c r="G44" t="n">
-        <v>194.2185710867324</v>
+        <v>194.2185710867323</v>
       </c>
       <c r="H44" t="n">
-        <v>106.9541134741709</v>
+        <v>106.9541134741708</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.631347080317805</v>
+        <v>2.631347080317718</v>
       </c>
       <c r="U44" t="n">
-        <v>35.09141551657716</v>
+        <v>35.09141551657708</v>
       </c>
       <c r="V44" t="n">
         <v>116.4060929292365</v>
@@ -4040,10 +4040,10 @@
         <v>141.7061924071934</v>
       </c>
       <c r="X44" t="n">
-        <v>161.0064506399401</v>
+        <v>161.00645063994</v>
       </c>
       <c r="Y44" t="n">
-        <v>172.4030484361388</v>
+        <v>172.4030484361387</v>
       </c>
     </row>
     <row r="45">
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>8.908277892367835</v>
+        <v>8.908277892367749</v>
       </c>
       <c r="W45" t="n">
-        <v>21.69932164524153</v>
+        <v>21.69932164524144</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.64525208222438</v>
+        <v>12.6452520822243</v>
       </c>
       <c r="U46" t="n">
-        <v>67.10220157813973</v>
+        <v>67.10220157813964</v>
       </c>
       <c r="V46" t="n">
-        <v>40.92456296338008</v>
+        <v>40.92456296338</v>
       </c>
       <c r="W46" t="n">
-        <v>66.09144903399334</v>
+        <v>66.09144903399326</v>
       </c>
       <c r="X46" t="n">
-        <v>11.73655102979646</v>
+        <v>11.73655102979637</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.611418785864146</v>
+        <v>2.611418785864061</v>
       </c>
     </row>
   </sheetData>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>269.3250041813923</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C11" t="n">
-        <v>121.3957345746574</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D11" t="n">
-        <v>121.3957345746574</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="E11" t="n">
-        <v>121.3957345746574</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="F11" t="n">
-        <v>121.3957345746574</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="G11" t="n">
-        <v>121.3957345746574</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H11" t="n">
         <v>11.71599815285341</v>
       </c>
       <c r="I11" t="n">
-        <v>75.64118274439153</v>
+        <v>75.64118274439147</v>
       </c>
       <c r="J11" t="n">
-        <v>75.64118274439153</v>
+        <v>187.2071531304965</v>
       </c>
       <c r="K11" t="n">
-        <v>177.6340312611106</v>
+        <v>187.2071531304965</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8034500872423</v>
+        <v>278.673651062237</v>
       </c>
       <c r="M11" t="n">
-        <v>321.5034947208706</v>
+        <v>278.673651062237</v>
       </c>
       <c r="N11" t="n">
-        <v>321.5034947208706</v>
+        <v>278.673651062237</v>
       </c>
       <c r="O11" t="n">
-        <v>321.5034947208706</v>
+        <v>393.9098900459975</v>
       </c>
       <c r="P11" t="n">
-        <v>423.093689752841</v>
+        <v>495.5000850779678</v>
       </c>
       <c r="Q11" t="n">
-        <v>513.3935123175437</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="R11" t="n">
         <v>585.7999076426704</v>
@@ -5069,22 +5069,22 @@
         <v>585.7999076426704</v>
       </c>
       <c r="T11" t="n">
-        <v>581.4967029318292</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="U11" t="n">
-        <v>544.4055503055745</v>
+        <v>548.7087550164156</v>
       </c>
       <c r="V11" t="n">
-        <v>425.1783598887546</v>
+        <v>452.3573838214835</v>
       </c>
       <c r="W11" t="n">
-        <v>280.3955134335945</v>
+        <v>307.5745373663233</v>
       </c>
       <c r="X11" t="n">
-        <v>280.3955134335945</v>
+        <v>307.5745373663233</v>
       </c>
       <c r="Y11" t="n">
-        <v>269.3250041813923</v>
+        <v>159.6452677595884</v>
       </c>
     </row>
     <row r="12">
@@ -5127,34 +5127,34 @@
         <v>11.71599815285341</v>
       </c>
       <c r="M12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="N12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="O12" t="n">
-        <v>46.64750657504614</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="P12" t="n">
-        <v>46.64750657504614</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.64750657504614</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="R12" t="n">
-        <v>46.64750657504614</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="S12" t="n">
-        <v>46.64750657504614</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="T12" t="n">
-        <v>46.64750657504614</v>
+        <v>46.64750657504639</v>
       </c>
       <c r="U12" t="n">
-        <v>45.9233220967316</v>
+        <v>45.92332209673177</v>
       </c>
       <c r="V12" t="n">
-        <v>35.27978323230447</v>
+        <v>35.27978323230455</v>
       </c>
       <c r="W12" t="n">
         <v>11.71599815285341</v>
@@ -5182,64 +5182,64 @@
         <v>11.71599815285341</v>
       </c>
       <c r="E13" t="n">
-        <v>11.71599815285341</v>
+        <v>76.15078051938477</v>
       </c>
       <c r="F13" t="n">
-        <v>11.71599815285341</v>
+        <v>76.15078051938477</v>
       </c>
       <c r="G13" t="n">
-        <v>11.71599815285341</v>
+        <v>86.79342122629757</v>
       </c>
       <c r="H13" t="n">
-        <v>11.71599815285341</v>
+        <v>86.79342122629757</v>
       </c>
       <c r="I13" t="n">
-        <v>11.71599815285341</v>
+        <v>86.79342122629757</v>
       </c>
       <c r="J13" t="n">
-        <v>11.71599815285341</v>
+        <v>86.79342122629757</v>
       </c>
       <c r="K13" t="n">
-        <v>148.2395937641567</v>
+        <v>86.79342122629757</v>
       </c>
       <c r="L13" t="n">
-        <v>148.2395937641567</v>
+        <v>86.79342122629757</v>
       </c>
       <c r="M13" t="n">
-        <v>148.2395937641567</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="N13" t="n">
-        <v>148.2395937641567</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="O13" t="n">
-        <v>148.2395937641567</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="P13" t="n">
-        <v>148.2395937641567</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.2395937641567</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="R13" t="n">
-        <v>224.7305324699123</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="S13" t="n">
-        <v>224.7305324699123</v>
+        <v>224.7305324699128</v>
       </c>
       <c r="T13" t="n">
-        <v>210.3122722015897</v>
+        <v>210.3122722015901</v>
       </c>
       <c r="U13" t="n">
-        <v>140.8869922404232</v>
+        <v>140.8869922404236</v>
       </c>
       <c r="V13" t="n">
-        <v>97.90377148608474</v>
+        <v>97.90377148608499</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49945369072275</v>
+        <v>29.49945369072292</v>
       </c>
       <c r="X13" t="n">
-        <v>15.99907327333742</v>
+        <v>15.9990732733375</v>
       </c>
       <c r="Y13" t="n">
         <v>11.71599815285341</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.5745373663234</v>
+        <v>277.2490902820193</v>
       </c>
       <c r="C14" t="n">
-        <v>159.6452677595884</v>
+        <v>277.2490902820193</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6452677595884</v>
+        <v>129.3198206752841</v>
       </c>
       <c r="E14" t="n">
-        <v>159.6452677595884</v>
+        <v>129.3198206752841</v>
       </c>
       <c r="F14" t="n">
-        <v>11.71599815285341</v>
+        <v>121.3957345746575</v>
       </c>
       <c r="G14" t="n">
-        <v>11.71599815285341</v>
+        <v>121.3957345746575</v>
       </c>
       <c r="H14" t="n">
         <v>11.71599815285341</v>
@@ -5276,52 +5276,52 @@
         <v>11.71599815285341</v>
       </c>
       <c r="J14" t="n">
-        <v>11.71599815285341</v>
+        <v>123.2819685389584</v>
       </c>
       <c r="K14" t="n">
-        <v>113.7088466695725</v>
+        <v>123.2819685389584</v>
       </c>
       <c r="L14" t="n">
-        <v>113.7088466695725</v>
+        <v>228.449700133524</v>
       </c>
       <c r="M14" t="n">
-        <v>232.4088913032008</v>
+        <v>347.1497447671522</v>
       </c>
       <c r="N14" t="n">
-        <v>232.4088913032008</v>
+        <v>347.1497447671522</v>
       </c>
       <c r="O14" t="n">
-        <v>347.6451302869613</v>
+        <v>462.3859837509126</v>
       </c>
       <c r="P14" t="n">
-        <v>449.2353253189317</v>
+        <v>462.3859837509126</v>
       </c>
       <c r="Q14" t="n">
-        <v>539.5351478836344</v>
+        <v>552.6858063156151</v>
       </c>
       <c r="R14" t="n">
-        <v>544.1309342247922</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="S14" t="n">
         <v>585.7999076426704</v>
       </c>
       <c r="T14" t="n">
-        <v>585.7999076426704</v>
+        <v>581.496702931829</v>
       </c>
       <c r="U14" t="n">
-        <v>585.7999076426704</v>
+        <v>544.4055503055743</v>
       </c>
       <c r="V14" t="n">
-        <v>466.5727172258506</v>
+        <v>425.1783598887542</v>
       </c>
       <c r="W14" t="n">
-        <v>321.7898707706905</v>
+        <v>425.1783598887542</v>
       </c>
       <c r="X14" t="n">
-        <v>321.7898707706905</v>
+        <v>425.1783598887542</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.7898707706905</v>
+        <v>425.1783598887542</v>
       </c>
     </row>
     <row r="15">
@@ -5337,61 +5337,61 @@
         <v>11.71599815285341</v>
       </c>
       <c r="D15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="E15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="F15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="G15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="H15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="I15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="J15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="K15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="L15" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="M15" t="n">
-        <v>46.64750657504622</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="N15" t="n">
-        <v>46.64750657504622</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="O15" t="n">
-        <v>46.64750657504622</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="P15" t="n">
-        <v>46.64750657504622</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.64750657504622</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="R15" t="n">
-        <v>46.64750657504622</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="S15" t="n">
-        <v>46.64750657504622</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="T15" t="n">
-        <v>46.64750657504622</v>
+        <v>46.64750657504665</v>
       </c>
       <c r="U15" t="n">
-        <v>45.92332209673165</v>
+        <v>45.92332209673194</v>
       </c>
       <c r="V15" t="n">
-        <v>35.2797832323045</v>
+        <v>35.27978323230464</v>
       </c>
       <c r="W15" t="n">
         <v>11.71599815285341</v>
@@ -5443,40 +5443,40 @@
         <v>11.71599815285341</v>
       </c>
       <c r="M16" t="n">
-        <v>11.71599815285341</v>
+        <v>149.6531093964685</v>
       </c>
       <c r="N16" t="n">
-        <v>11.71599815285341</v>
+        <v>149.6531093964685</v>
       </c>
       <c r="O16" t="n">
-        <v>146.4655124673205</v>
+        <v>149.6531093964685</v>
       </c>
       <c r="P16" t="n">
-        <v>146.4655124673205</v>
+        <v>149.6531093964685</v>
       </c>
       <c r="Q16" t="n">
-        <v>224.7305324699124</v>
+        <v>149.6531093964685</v>
       </c>
       <c r="R16" t="n">
-        <v>224.7305324699124</v>
+        <v>224.7305324699133</v>
       </c>
       <c r="S16" t="n">
-        <v>224.7305324699124</v>
+        <v>224.7305324699133</v>
       </c>
       <c r="T16" t="n">
-        <v>210.3122722015898</v>
+        <v>210.3122722015905</v>
       </c>
       <c r="U16" t="n">
-        <v>140.8869922404234</v>
+        <v>140.8869922404239</v>
       </c>
       <c r="V16" t="n">
-        <v>97.90377148608482</v>
+        <v>97.90377148608526</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49945369072281</v>
+        <v>29.4994536907231</v>
       </c>
       <c r="X16" t="n">
-        <v>15.99907327333745</v>
+        <v>15.99907327333759</v>
       </c>
       <c r="Y16" t="n">
         <v>11.71599815285341</v>
@@ -5501,7 +5501,7 @@
         <v>186.5812855140055</v>
       </c>
       <c r="F17" t="n">
-        <v>99.86191493321854</v>
+        <v>99.86191493321849</v>
       </c>
       <c r="G17" t="n">
         <v>11.71599815285341</v>
@@ -5516,34 +5516,34 @@
         <v>11.71599815285341</v>
       </c>
       <c r="K17" t="n">
-        <v>156.7014752944143</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L17" t="n">
-        <v>156.7014752944143</v>
+        <v>150.8434762179876</v>
       </c>
       <c r="M17" t="n">
-        <v>156.7014752944143</v>
+        <v>295.8289533595486</v>
       </c>
       <c r="N17" t="n">
-        <v>156.7014752944143</v>
+        <v>440.8144305011095</v>
       </c>
       <c r="O17" t="n">
-        <v>156.7014752944143</v>
+        <v>440.8144305011095</v>
       </c>
       <c r="P17" t="n">
-        <v>301.6869524359753</v>
+        <v>440.8144305011095</v>
       </c>
       <c r="Q17" t="n">
-        <v>301.6869524359753</v>
+        <v>440.8144305011095</v>
       </c>
       <c r="R17" t="n">
-        <v>411.3762979347381</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="S17" t="n">
-        <v>411.3762979347381</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="T17" t="n">
-        <v>514.6558366646526</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="U17" t="n">
         <v>585.7999076426704</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.8292685207391</v>
+        <v>353.8292685207396</v>
       </c>
       <c r="C20" t="n">
-        <v>299.3273299625893</v>
+        <v>299.3273299625897</v>
       </c>
       <c r="D20" t="n">
-        <v>253.9351852988557</v>
+        <v>253.9351852988561</v>
       </c>
       <c r="E20" t="n">
-        <v>186.5812855140055</v>
+        <v>186.5812855140057</v>
       </c>
       <c r="F20" t="n">
         <v>99.86191493321857</v>
@@ -5747,37 +5747,37 @@
         <v>11.71599815285341</v>
       </c>
       <c r="I20" t="n">
-        <v>156.7014752944143</v>
+        <v>150.8434762179876</v>
       </c>
       <c r="J20" t="n">
-        <v>301.6869524359753</v>
+        <v>150.8434762179876</v>
       </c>
       <c r="K20" t="n">
-        <v>301.6869524359753</v>
+        <v>150.8434762179876</v>
       </c>
       <c r="L20" t="n">
-        <v>337.534891771195</v>
+        <v>150.8434762179876</v>
       </c>
       <c r="M20" t="n">
-        <v>337.534891771195</v>
+        <v>295.8289533595486</v>
       </c>
       <c r="N20" t="n">
-        <v>337.534891771195</v>
+        <v>295.8289533595486</v>
       </c>
       <c r="O20" t="n">
-        <v>482.5203689127559</v>
+        <v>295.8289533595486</v>
       </c>
       <c r="P20" t="n">
-        <v>482.5203689127559</v>
+        <v>295.8289533595486</v>
       </c>
       <c r="Q20" t="n">
-        <v>482.5203689127559</v>
+        <v>440.8144305011095</v>
       </c>
       <c r="R20" t="n">
-        <v>482.5203689127559</v>
+        <v>440.8144305011095</v>
       </c>
       <c r="S20" t="n">
-        <v>482.5203689127559</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="T20" t="n">
         <v>585.7999076426704</v>
@@ -5984,28 +5984,28 @@
         <v>11.71599815285341</v>
       </c>
       <c r="I23" t="n">
-        <v>11.71599815285341</v>
+        <v>79.69940523996996</v>
       </c>
       <c r="J23" t="n">
-        <v>11.71599815285341</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="K23" t="n">
-        <v>11.71599815285341</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="L23" t="n">
-        <v>156.7014752944143</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="M23" t="n">
-        <v>156.7014752944143</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="N23" t="n">
-        <v>301.6869524359753</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="O23" t="n">
-        <v>301.6869524359753</v>
+        <v>369.6703595230918</v>
       </c>
       <c r="P23" t="n">
-        <v>301.6869524359753</v>
+        <v>369.6703595230918</v>
       </c>
       <c r="Q23" t="n">
         <v>369.6703595230918</v>
@@ -6206,13 +6206,13 @@
         <v>1097.04738406355</v>
       </c>
       <c r="D26" t="n">
-        <v>899.4604806151126</v>
+        <v>899.4604806151131</v>
       </c>
       <c r="E26" t="n">
-        <v>679.9118220455584</v>
+        <v>679.9118220455589</v>
       </c>
       <c r="F26" t="n">
-        <v>440.9976926800677</v>
+        <v>440.9976926800682</v>
       </c>
       <c r="G26" t="n">
         <v>200.657017114999</v>
@@ -6221,40 +6221,40 @@
         <v>48.46225833029501</v>
       </c>
       <c r="I26" t="n">
-        <v>70.71846950395485</v>
+        <v>70.71846950395486</v>
       </c>
       <c r="J26" t="n">
-        <v>140.6154664721817</v>
+        <v>70.71846950395486</v>
       </c>
       <c r="K26" t="n">
-        <v>140.6154664721817</v>
+        <v>128.9182883689475</v>
       </c>
       <c r="L26" t="n">
-        <v>600.0937023748213</v>
+        <v>520.2143591896105</v>
       </c>
       <c r="M26" t="n">
-        <v>1199.814149212222</v>
+        <v>520.2143591896105</v>
       </c>
       <c r="N26" t="n">
-        <v>1799.534596049623</v>
+        <v>1119.934806027011</v>
       </c>
       <c r="O26" t="n">
-        <v>2363.191694900658</v>
+        <v>1683.591904878047</v>
       </c>
       <c r="P26" t="n">
-        <v>2423.11291651475</v>
+        <v>1985.918220104852</v>
       </c>
       <c r="Q26" t="n">
-        <v>2423.11291651475</v>
+        <v>2307.798462230974</v>
       </c>
       <c r="R26" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="S26" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="T26" t="n">
-        <v>2376.294689441009</v>
+        <v>2376.29468944101</v>
       </c>
       <c r="U26" t="n">
         <v>2296.688514451855</v>
@@ -6309,25 +6309,25 @@
         <v>48.46225833029501</v>
       </c>
       <c r="L27" t="n">
-        <v>125.3403523641194</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="M27" t="n">
-        <v>125.3403523641194</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="N27" t="n">
-        <v>263.2161499741894</v>
+        <v>186.3380559403651</v>
       </c>
       <c r="O27" t="n">
-        <v>263.2161499741894</v>
+        <v>186.3380559403651</v>
       </c>
       <c r="P27" t="n">
-        <v>263.2161499741894</v>
+        <v>236.0991512163599</v>
       </c>
       <c r="Q27" t="n">
-        <v>263.2161499741894</v>
+        <v>236.0991512163599</v>
       </c>
       <c r="R27" t="n">
-        <v>263.2161499741894</v>
+        <v>236.0991512163599</v>
       </c>
       <c r="S27" t="n">
         <v>263.2161499741894</v>
@@ -6367,43 +6367,43 @@
         <v>48.46225833029501</v>
       </c>
       <c r="E28" t="n">
-        <v>71.22806727894817</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F28" t="n">
-        <v>93.53162114269688</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G28" t="n">
-        <v>93.53162114269688</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="H28" t="n">
-        <v>93.53162114269688</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I28" t="n">
-        <v>130.9056853671113</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J28" t="n">
-        <v>130.9056853671113</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K28" t="n">
-        <v>130.9056853671113</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="L28" t="n">
-        <v>430.5572266280024</v>
+        <v>146.111153204016</v>
       </c>
       <c r="M28" t="n">
-        <v>430.5572266280024</v>
+        <v>146.111153204016</v>
       </c>
       <c r="N28" t="n">
-        <v>430.5572266280024</v>
+        <v>146.111153204016</v>
       </c>
       <c r="O28" t="n">
-        <v>523.6377675245913</v>
+        <v>277.2764749095111</v>
       </c>
       <c r="P28" t="n">
-        <v>523.6377675245913</v>
+        <v>405.8914621712485</v>
       </c>
       <c r="Q28" t="n">
-        <v>523.6377675245913</v>
+        <v>559.2440973896785</v>
       </c>
       <c r="R28" t="n">
         <v>559.2440973896785</v>
@@ -6446,10 +6446,10 @@
         <v>899.4604806151124</v>
       </c>
       <c r="E29" t="n">
-        <v>679.9118220455584</v>
+        <v>679.9118220455582</v>
       </c>
       <c r="F29" t="n">
-        <v>440.9976926800678</v>
+        <v>440.9976926800675</v>
       </c>
       <c r="G29" t="n">
         <v>200.6570171149989</v>
@@ -6461,28 +6461,28 @@
         <v>48.46225833029501</v>
       </c>
       <c r="J29" t="n">
-        <v>335.9865990249808</v>
+        <v>164.2367552209963</v>
       </c>
       <c r="K29" t="n">
-        <v>396.3104741238217</v>
+        <v>469.9859324949416</v>
       </c>
       <c r="L29" t="n">
-        <v>520.2143591896101</v>
+        <v>1069.706379332342</v>
       </c>
       <c r="M29" t="n">
-        <v>1119.934806027011</v>
+        <v>1146.737450548092</v>
       </c>
       <c r="N29" t="n">
-        <v>1119.934806027011</v>
+        <v>1225.984592305738</v>
       </c>
       <c r="O29" t="n">
-        <v>1683.591904878046</v>
+        <v>1627.156515357839</v>
       </c>
       <c r="P29" t="n">
-        <v>1985.918220104852</v>
+        <v>2101.232674388629</v>
       </c>
       <c r="Q29" t="n">
-        <v>2307.798462230974</v>
+        <v>2423.11291651475</v>
       </c>
       <c r="R29" t="n">
         <v>2423.11291651475</v>
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63.96510626436583</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="C30" t="n">
-        <v>63.96510626436583</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="D30" t="n">
-        <v>63.96510626436583</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E30" t="n">
-        <v>63.96510626436583</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F30" t="n">
-        <v>63.96510626436583</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G30" t="n">
-        <v>63.96510626436583</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="H30" t="n">
-        <v>140.4310986216816</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I30" t="n">
-        <v>140.4310986216816</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J30" t="n">
-        <v>140.4310986216816</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K30" t="n">
-        <v>140.4310986216816</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="L30" t="n">
-        <v>140.5080242044829</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="M30" t="n">
-        <v>140.5080242044829</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="N30" t="n">
-        <v>140.5080242044829</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="O30" t="n">
-        <v>263.216149974189</v>
+        <v>135.8752916766463</v>
       </c>
       <c r="P30" t="n">
-        <v>263.216149974189</v>
+        <v>135.8752916766463</v>
       </c>
       <c r="Q30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="R30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="S30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="T30" t="n">
-        <v>250.9030256651362</v>
+        <v>250.9030256651363</v>
       </c>
       <c r="U30" t="n">
-        <v>207.6638188239217</v>
+        <v>207.6638188239218</v>
       </c>
       <c r="V30" t="n">
-        <v>154.5052575965946</v>
+        <v>154.5052575965947</v>
       </c>
       <c r="W30" t="n">
-        <v>88.42645015424365</v>
+        <v>88.42645015424371</v>
       </c>
       <c r="X30" t="n">
-        <v>65.74652335637721</v>
+        <v>65.74652335637724</v>
       </c>
       <c r="Y30" t="n">
         <v>48.46225833029501</v>
@@ -6604,67 +6604,67 @@
         <v>48.46225833029501</v>
       </c>
       <c r="E31" t="n">
-        <v>71.22806727894822</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F31" t="n">
-        <v>71.22806727894822</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G31" t="n">
-        <v>71.22806727894822</v>
+        <v>54.88521643514727</v>
       </c>
       <c r="H31" t="n">
-        <v>88.83378165357773</v>
+        <v>72.49093080977676</v>
       </c>
       <c r="I31" t="n">
-        <v>88.83378165357773</v>
+        <v>72.49093080977676</v>
       </c>
       <c r="J31" t="n">
-        <v>88.83378165357773</v>
+        <v>72.49093080977676</v>
       </c>
       <c r="K31" t="n">
-        <v>88.83378165357773</v>
+        <v>72.49093080977676</v>
       </c>
       <c r="L31" t="n">
-        <v>88.83378165357773</v>
+        <v>72.49093080977676</v>
       </c>
       <c r="M31" t="n">
-        <v>203.4632964300141</v>
+        <v>72.49093080977676</v>
       </c>
       <c r="N31" t="n">
-        <v>203.4632964300141</v>
+        <v>398.0674962711732</v>
       </c>
       <c r="O31" t="n">
-        <v>296.5438373266031</v>
+        <v>398.0674962711732</v>
       </c>
       <c r="P31" t="n">
-        <v>559.244097389678</v>
+        <v>487.0143093490773</v>
       </c>
       <c r="Q31" t="n">
-        <v>559.244097389678</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="R31" t="n">
-        <v>559.244097389678</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="S31" t="n">
-        <v>524.8852341847944</v>
+        <v>524.8852341847946</v>
       </c>
       <c r="T31" t="n">
-        <v>467.9519515535718</v>
+        <v>467.951951553572</v>
       </c>
       <c r="U31" t="n">
-        <v>356.0116492295055</v>
+        <v>356.0116492295056</v>
       </c>
       <c r="V31" t="n">
-        <v>270.513406112267</v>
+        <v>270.5134061122671</v>
       </c>
       <c r="W31" t="n">
-        <v>159.5940659540051</v>
+        <v>159.5940659540052</v>
       </c>
       <c r="X31" t="n">
-        <v>103.5786631737198</v>
+        <v>103.5786631737199</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.78056569033587</v>
+        <v>56.7805656903359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1303.744081406403</v>
+        <v>1303.744081406404</v>
       </c>
       <c r="C32" t="n">
         <v>1097.04738406355</v>
       </c>
       <c r="D32" t="n">
-        <v>899.4604806151121</v>
+        <v>899.4604806151128</v>
       </c>
       <c r="E32" t="n">
-        <v>679.9118220455579</v>
+        <v>679.9118220455584</v>
       </c>
       <c r="F32" t="n">
-        <v>440.9976926800671</v>
+        <v>440.9976926800675</v>
       </c>
       <c r="G32" t="n">
         <v>200.657017114999</v>
@@ -6695,55 +6695,55 @@
         <v>48.46225833029501</v>
       </c>
       <c r="I32" t="n">
-        <v>48.46225833029501</v>
+        <v>70.71846950395478</v>
       </c>
       <c r="J32" t="n">
-        <v>164.2367552209962</v>
+        <v>358.2428101986405</v>
       </c>
       <c r="K32" t="n">
-        <v>224.560630319837</v>
+        <v>835.7418312765703</v>
       </c>
       <c r="L32" t="n">
-        <v>413.3831431175956</v>
+        <v>1265.020728775703</v>
       </c>
       <c r="M32" t="n">
-        <v>413.3831431175956</v>
+        <v>1720.287454291977</v>
       </c>
       <c r="N32" t="n">
-        <v>1013.103589954996</v>
+        <v>1799.534596049623</v>
       </c>
       <c r="O32" t="n">
-        <v>1576.760688806032</v>
+        <v>2363.191694900659</v>
       </c>
       <c r="P32" t="n">
-        <v>2050.836847836822</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="Q32" t="n">
-        <v>2307.798462230974</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="R32" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="S32" t="n">
-        <v>2423.11291651475</v>
+        <v>2423.112916514751</v>
       </c>
       <c r="T32" t="n">
-        <v>2376.294689441009</v>
+        <v>2376.29468944101</v>
       </c>
       <c r="U32" t="n">
-        <v>2296.688514451855</v>
+        <v>2296.688514451856</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.946301672135</v>
+        <v>2134.946301672136</v>
       </c>
       <c r="W32" t="n">
-        <v>1947.648432854075</v>
+        <v>1947.648432854076</v>
       </c>
       <c r="X32" t="n">
         <v>1740.855353699907</v>
       </c>
       <c r="Y32" t="n">
-        <v>1522.550559600083</v>
+        <v>1522.550559600084</v>
       </c>
     </row>
     <row r="33">
@@ -6759,67 +6759,67 @@
         <v>48.46225833029501</v>
       </c>
       <c r="D33" t="n">
-        <v>84.13635400098636</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E33" t="n">
-        <v>84.13635400098636</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F33" t="n">
-        <v>84.13635400098636</v>
+        <v>88.19871066535133</v>
       </c>
       <c r="G33" t="n">
-        <v>84.13635400098636</v>
+        <v>134.0577168204836</v>
       </c>
       <c r="H33" t="n">
-        <v>84.13635400098636</v>
+        <v>134.0577168204836</v>
       </c>
       <c r="I33" t="n">
-        <v>84.13635400098636</v>
+        <v>134.0577168204836</v>
       </c>
       <c r="J33" t="n">
-        <v>179.9338393388913</v>
+        <v>134.0577168204836</v>
       </c>
       <c r="K33" t="n">
-        <v>179.9338393388913</v>
+        <v>239.4936775812725</v>
       </c>
       <c r="L33" t="n">
-        <v>263.2161499741898</v>
+        <v>239.4936775812725</v>
       </c>
       <c r="M33" t="n">
-        <v>263.2161499741898</v>
+        <v>239.4936775812725</v>
       </c>
       <c r="N33" t="n">
-        <v>263.2161499741898</v>
+        <v>239.4936775812725</v>
       </c>
       <c r="O33" t="n">
-        <v>263.2161499741898</v>
+        <v>239.4936775812725</v>
       </c>
       <c r="P33" t="n">
-        <v>263.2161499741898</v>
+        <v>239.4936775812725</v>
       </c>
       <c r="Q33" t="n">
-        <v>263.2161499741898</v>
+        <v>239.4936775812725</v>
       </c>
       <c r="R33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.21614997419</v>
       </c>
       <c r="S33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.21614997419</v>
       </c>
       <c r="T33" t="n">
-        <v>250.9030256651368</v>
+        <v>250.903025665137</v>
       </c>
       <c r="U33" t="n">
-        <v>207.6638188239222</v>
+        <v>207.6638188239223</v>
       </c>
       <c r="V33" t="n">
-        <v>154.505257596595</v>
+        <v>154.5052575965951</v>
       </c>
       <c r="W33" t="n">
-        <v>88.42645015424388</v>
+        <v>88.42645015424395</v>
       </c>
       <c r="X33" t="n">
-        <v>65.74652335637732</v>
+        <v>65.74652335637737</v>
       </c>
       <c r="Y33" t="n">
         <v>48.46225833029501</v>
@@ -6841,67 +6841,67 @@
         <v>48.46225833029501</v>
       </c>
       <c r="E34" t="n">
-        <v>48.46225833029501</v>
+        <v>71.22806727894809</v>
       </c>
       <c r="F34" t="n">
-        <v>48.46225833029501</v>
+        <v>71.22806727894809</v>
       </c>
       <c r="G34" t="n">
-        <v>48.46225833029501</v>
+        <v>71.22806727894809</v>
       </c>
       <c r="H34" t="n">
-        <v>48.46225833029501</v>
+        <v>71.22806727894809</v>
       </c>
       <c r="I34" t="n">
-        <v>85.8363225547094</v>
+        <v>71.22806727894809</v>
       </c>
       <c r="J34" t="n">
-        <v>171.7913716596979</v>
+        <v>71.22806727894809</v>
       </c>
       <c r="K34" t="n">
-        <v>171.7913716596979</v>
+        <v>166.082689472373</v>
       </c>
       <c r="L34" t="n">
-        <v>171.7913716596979</v>
+        <v>166.082689472373</v>
       </c>
       <c r="M34" t="n">
-        <v>305.956892447736</v>
+        <v>166.082689472373</v>
       </c>
       <c r="N34" t="n">
-        <v>305.956892447736</v>
+        <v>319.9094111297849</v>
       </c>
       <c r="O34" t="n">
-        <v>399.0374333443248</v>
+        <v>559.2440973896793</v>
       </c>
       <c r="P34" t="n">
-        <v>489.9878496034151</v>
+        <v>559.2440973896793</v>
       </c>
       <c r="Q34" t="n">
-        <v>559.2440973896789</v>
+        <v>559.2440973896793</v>
       </c>
       <c r="R34" t="n">
-        <v>559.2440973896789</v>
+        <v>559.2440973896793</v>
       </c>
       <c r="S34" t="n">
-        <v>524.8852341847952</v>
+        <v>524.8852341847954</v>
       </c>
       <c r="T34" t="n">
-        <v>467.9519515535725</v>
+        <v>467.9519515535727</v>
       </c>
       <c r="U34" t="n">
-        <v>356.011649229506</v>
+        <v>356.0116492295062</v>
       </c>
       <c r="V34" t="n">
-        <v>270.5134061122675</v>
+        <v>270.5134061122676</v>
       </c>
       <c r="W34" t="n">
-        <v>159.5940659540054</v>
+        <v>159.5940659540055</v>
       </c>
       <c r="X34" t="n">
-        <v>103.57866317372</v>
+        <v>103.5786631737201</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.78056569033598</v>
+        <v>56.78056569033602</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1027.066278873635</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5298822607675</v>
+        <v>864.5298822607674</v>
       </c>
       <c r="D35" t="n">
-        <v>711.1032795423159</v>
+        <v>711.1032795423157</v>
       </c>
       <c r="E35" t="n">
-        <v>535.7149217027477</v>
+        <v>535.7149217027473</v>
       </c>
       <c r="F35" t="n">
-        <v>340.9610930672429</v>
+        <v>340.9610930672425</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7807182321596</v>
+        <v>144.7807182321597</v>
       </c>
       <c r="H35" t="n">
         <v>36.74626017744161</v>
@@ -6935,25 +6935,25 @@
         <v>36.74626017744161</v>
       </c>
       <c r="J35" t="n">
-        <v>367.5521116175866</v>
+        <v>149.9247678911276</v>
       </c>
       <c r="K35" t="n">
-        <v>535.8523577342335</v>
+        <v>604.6597375869674</v>
       </c>
       <c r="L35" t="n">
-        <v>642.6326266563801</v>
+        <v>711.440006509114</v>
       </c>
       <c r="M35" t="n">
-        <v>762.9452086175894</v>
+        <v>831.7525884703232</v>
       </c>
       <c r="N35" t="n">
-        <v>762.9452086175894</v>
+        <v>831.7525884703232</v>
       </c>
       <c r="O35" t="n">
-        <v>1217.680178313429</v>
+        <v>948.6013647816646</v>
       </c>
       <c r="P35" t="n">
-        <v>1270.273780225804</v>
+        <v>1403.336334477504</v>
       </c>
       <c r="Q35" t="n">
         <v>1635.435533097385</v>
@@ -6974,13 +6974,13 @@
         <v>1681.627296219423</v>
       </c>
       <c r="W35" t="n">
-        <v>1538.489728131349</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X35" t="n">
-        <v>1375.856949707167</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y35" t="n">
-        <v>1201.71245633733</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="36">
@@ -7005,52 +7005,52 @@
         <v>36.74626017744161</v>
       </c>
       <c r="G36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="K36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="M36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="N36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="O36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="P36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.66302738714792</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="R36" t="n">
-        <v>67.66302738714792</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="S36" t="n">
-        <v>67.66302738714792</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="T36" t="n">
-        <v>67.66302738714792</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="U36" t="n">
-        <v>67.66302738714792</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="V36" t="n">
-        <v>58.66476688980673</v>
+        <v>58.66476688980678</v>
       </c>
       <c r="W36" t="n">
         <v>36.74626017744161</v>
@@ -7078,64 +7078,64 @@
         <v>36.74626017744161</v>
       </c>
       <c r="E37" t="n">
-        <v>102.793579871554</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F37" t="n">
-        <v>102.793579871554</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G37" t="n">
-        <v>102.793579871554</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H37" t="n">
-        <v>102.793579871554</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I37" t="n">
-        <v>102.793579871554</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J37" t="n">
-        <v>232.0301397220018</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="K37" t="n">
-        <v>232.0301397220018</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L37" t="n">
-        <v>232.0301397220018</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="M37" t="n">
-        <v>232.0301397220018</v>
+        <v>139.3323191145422</v>
       </c>
       <c r="N37" t="n">
-        <v>232.0301397220018</v>
+        <v>139.3323191145422</v>
       </c>
       <c r="O37" t="n">
-        <v>232.0301397220018</v>
+        <v>139.3323191145422</v>
       </c>
       <c r="P37" t="n">
-        <v>239.8891242919849</v>
+        <v>230.2827353736326</v>
       </c>
       <c r="Q37" t="n">
-        <v>239.8891242919849</v>
+        <v>230.2827353736326</v>
       </c>
       <c r="R37" t="n">
-        <v>239.8891242919849</v>
+        <v>230.2827353736326</v>
       </c>
       <c r="S37" t="n">
-        <v>239.8891242919849</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1161423907482</v>
+        <v>227.1161423907485</v>
       </c>
       <c r="U37" t="n">
-        <v>159.3361407966677</v>
+        <v>159.3361407966679</v>
       </c>
       <c r="V37" t="n">
-        <v>117.9981984094151</v>
+        <v>117.9981984094153</v>
       </c>
       <c r="W37" t="n">
-        <v>51.23915898113907</v>
+        <v>51.23915898113918</v>
       </c>
       <c r="X37" t="n">
-        <v>39.38405693083968</v>
+        <v>39.38405693083973</v>
       </c>
       <c r="Y37" t="n">
         <v>36.74626017744161</v>
@@ -7169,22 +7169,22 @@
         <v>36.74626017744161</v>
       </c>
       <c r="I38" t="n">
-        <v>84.05828298273795</v>
+        <v>102.2839820965607</v>
       </c>
       <c r="J38" t="n">
-        <v>197.236790696424</v>
+        <v>215.4624898102468</v>
       </c>
       <c r="K38" t="n">
-        <v>605.5558092482659</v>
+        <v>319.0678756545469</v>
       </c>
       <c r="L38" t="n">
-        <v>712.3360781704126</v>
+        <v>748.3467731536796</v>
       </c>
       <c r="M38" t="n">
-        <v>712.3360781704126</v>
+        <v>831.7506394344389</v>
       </c>
       <c r="N38" t="n">
-        <v>712.3360781704126</v>
+        <v>1050.222271554911</v>
       </c>
       <c r="O38" t="n">
         <v>1167.071047866252</v>
@@ -7266,7 +7266,7 @@
         <v>36.74626017744161</v>
       </c>
       <c r="O39" t="n">
-        <v>67.66302738714786</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="P39" t="n">
         <v>67.66302738714786</v>
@@ -7324,37 +7324,37 @@
         <v>36.74626017744161</v>
       </c>
       <c r="H40" t="n">
-        <v>97.63348529753031</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I40" t="n">
-        <v>97.63348529753031</v>
+        <v>117.4018351473153</v>
       </c>
       <c r="J40" t="n">
-        <v>226.8700451479781</v>
+        <v>117.4018351473153</v>
       </c>
       <c r="K40" t="n">
-        <v>226.8700451479781</v>
+        <v>117.4018351473153</v>
       </c>
       <c r="L40" t="n">
-        <v>226.8700451479781</v>
+        <v>117.4018351473153</v>
       </c>
       <c r="M40" t="n">
-        <v>239.8891242919847</v>
+        <v>117.4018351473153</v>
       </c>
       <c r="N40" t="n">
-        <v>239.8891242919847</v>
+        <v>117.4018351473153</v>
       </c>
       <c r="O40" t="n">
-        <v>239.8891242919847</v>
+        <v>230.282735373632</v>
       </c>
       <c r="P40" t="n">
-        <v>239.8891242919847</v>
+        <v>230.282735373632</v>
       </c>
       <c r="Q40" t="n">
-        <v>239.8891242919847</v>
+        <v>230.282735373632</v>
       </c>
       <c r="R40" t="n">
-        <v>239.8891242919847</v>
+        <v>230.282735373632</v>
       </c>
       <c r="S40" t="n">
         <v>239.8891242919847</v>
@@ -7391,49 +7391,49 @@
         <v>864.5298822607676</v>
       </c>
       <c r="D41" t="n">
-        <v>711.103279542316</v>
+        <v>711.1032795423162</v>
       </c>
       <c r="E41" t="n">
-        <v>535.7149217027478</v>
+        <v>535.7149217027479</v>
       </c>
       <c r="F41" t="n">
-        <v>340.961093067243</v>
+        <v>340.9610930672432</v>
       </c>
       <c r="G41" t="n">
-        <v>144.7807182321596</v>
+        <v>144.7807182321595</v>
       </c>
       <c r="H41" t="n">
         <v>36.74626017744161</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2839820965607</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J41" t="n">
-        <v>215.4624898102467</v>
+        <v>149.9247678911278</v>
       </c>
       <c r="K41" t="n">
-        <v>319.0678756545468</v>
+        <v>149.9247678911278</v>
       </c>
       <c r="L41" t="n">
-        <v>425.8481445766935</v>
+        <v>604.6597375869676</v>
       </c>
       <c r="M41" t="n">
-        <v>546.1607265379027</v>
+        <v>1012.270651428334</v>
       </c>
       <c r="N41" t="n">
-        <v>1000.895696233743</v>
+        <v>1134.799303931439</v>
       </c>
       <c r="O41" t="n">
-        <v>1455.630665929582</v>
+        <v>1251.648080242781</v>
       </c>
       <c r="P41" t="n">
-        <v>1558.833398289134</v>
+        <v>1354.850812602332</v>
       </c>
       <c r="Q41" t="n">
-        <v>1734.214695736942</v>
+        <v>1720.012565473913</v>
       </c>
       <c r="R41" t="n">
-        <v>1837.31300887208</v>
+        <v>1794.031498126621</v>
       </c>
       <c r="S41" t="n">
         <v>1837.31300887208</v>
@@ -7442,13 +7442,13 @@
         <v>1834.655082528325</v>
       </c>
       <c r="U41" t="n">
-        <v>1799.209208269157</v>
+        <v>1799.209208269156</v>
       </c>
       <c r="V41" t="n">
         <v>1681.627296219423</v>
       </c>
       <c r="W41" t="n">
-        <v>1538.489728131349</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X41" t="n">
         <v>1375.856949707167</v>
@@ -7485,46 +7485,46 @@
         <v>36.74626017744161</v>
       </c>
       <c r="I42" t="n">
-        <v>36.74626017744161</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="J42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="K42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="L42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="M42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="N42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="O42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="P42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="R42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="S42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="T42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="U42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714769</v>
       </c>
       <c r="V42" t="n">
-        <v>58.6647668898067</v>
+        <v>58.66476688980661</v>
       </c>
       <c r="W42" t="n">
         <v>36.74626017744161</v>
@@ -7570,46 +7570,46 @@
         <v>36.74626017744161</v>
       </c>
       <c r="K43" t="n">
-        <v>174.8823931163258</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L43" t="n">
-        <v>174.8823931163258</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="M43" t="n">
-        <v>174.8823931163258</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="N43" t="n">
-        <v>174.8823931163258</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="O43" t="n">
-        <v>239.8891242919847</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="P43" t="n">
-        <v>239.8891242919847</v>
+        <v>127.351365760261</v>
       </c>
       <c r="Q43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="R43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="S43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919842</v>
       </c>
       <c r="T43" t="n">
-        <v>227.116142390748</v>
+        <v>227.1161423907476</v>
       </c>
       <c r="U43" t="n">
-        <v>159.3361407966676</v>
+        <v>159.3361407966672</v>
       </c>
       <c r="V43" t="n">
-        <v>117.998198409415</v>
+        <v>117.9981984094148</v>
       </c>
       <c r="W43" t="n">
-        <v>51.23915898113901</v>
+        <v>51.23915898113884</v>
       </c>
       <c r="X43" t="n">
-        <v>39.38405693083965</v>
+        <v>39.38405693083956</v>
       </c>
       <c r="Y43" t="n">
         <v>36.74626017744161</v>
@@ -7625,49 +7625,49 @@
         <v>1027.066278873635</v>
       </c>
       <c r="C44" t="n">
-        <v>864.529882260767</v>
+        <v>864.5298822607672</v>
       </c>
       <c r="D44" t="n">
-        <v>711.1032795423157</v>
+        <v>711.1032795423159</v>
       </c>
       <c r="E44" t="n">
-        <v>535.7149217027472</v>
+        <v>535.7149217027475</v>
       </c>
       <c r="F44" t="n">
-        <v>340.9610930672424</v>
+        <v>340.9610930672426</v>
       </c>
       <c r="G44" t="n">
-        <v>144.7807182321597</v>
+        <v>144.7807182321596</v>
       </c>
       <c r="H44" t="n">
         <v>36.74626017744161</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2839820965606</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J44" t="n">
-        <v>433.0898335367056</v>
+        <v>367.5521116175866</v>
       </c>
       <c r="K44" t="n">
-        <v>815.9171656819289</v>
+        <v>471.1574974618867</v>
       </c>
       <c r="L44" t="n">
-        <v>922.6974346040755</v>
+        <v>925.8924671577265</v>
       </c>
       <c r="M44" t="n">
-        <v>1377.432404299915</v>
+        <v>1046.205049118936</v>
       </c>
       <c r="N44" t="n">
-        <v>1499.961056803021</v>
+        <v>1046.205049118936</v>
       </c>
       <c r="O44" t="n">
-        <v>1616.809833114362</v>
+        <v>1088.788203509262</v>
       </c>
       <c r="P44" t="n">
-        <v>1720.012565473913</v>
+        <v>1543.523173205101</v>
       </c>
       <c r="Q44" t="n">
-        <v>1720.012565473913</v>
+        <v>1635.435533097385</v>
       </c>
       <c r="R44" t="n">
         <v>1794.031498126621</v>
@@ -7679,16 +7679,16 @@
         <v>1834.655082528325</v>
       </c>
       <c r="U44" t="n">
-        <v>1799.209208269157</v>
+        <v>1799.209208269156</v>
       </c>
       <c r="V44" t="n">
-        <v>1681.627296219423</v>
+        <v>1681.627296219422</v>
       </c>
       <c r="W44" t="n">
         <v>1538.489728131348</v>
       </c>
       <c r="X44" t="n">
-        <v>1375.856949707167</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y44" t="n">
         <v>1201.712456337329</v>
@@ -7725,43 +7725,43 @@
         <v>36.74626017744161</v>
       </c>
       <c r="J45" t="n">
-        <v>67.66302738714803</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="K45" t="n">
-        <v>67.66302738714803</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L45" t="n">
-        <v>67.66302738714803</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="M45" t="n">
-        <v>67.66302738714803</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="N45" t="n">
-        <v>67.66302738714803</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="O45" t="n">
-        <v>67.66302738714803</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="P45" t="n">
-        <v>67.66302738714803</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.66302738714803</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="R45" t="n">
-        <v>67.66302738714803</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="S45" t="n">
-        <v>67.66302738714803</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="T45" t="n">
-        <v>67.66302738714803</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="U45" t="n">
-        <v>67.66302738714803</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="V45" t="n">
-        <v>58.66476688980678</v>
+        <v>58.6647668898067</v>
       </c>
       <c r="W45" t="n">
         <v>36.74626017744161</v>
@@ -7807,46 +7807,46 @@
         <v>36.74626017744161</v>
       </c>
       <c r="K46" t="n">
-        <v>174.8823931163257</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L46" t="n">
-        <v>174.8823931163257</v>
+        <v>93.92068373158386</v>
       </c>
       <c r="M46" t="n">
-        <v>174.8823931163257</v>
+        <v>93.92068373158386</v>
       </c>
       <c r="N46" t="n">
-        <v>174.8823931163257</v>
+        <v>93.92068373158386</v>
       </c>
       <c r="O46" t="n">
-        <v>239.8891242919852</v>
+        <v>230.282735373632</v>
       </c>
       <c r="P46" t="n">
-        <v>239.8891242919852</v>
+        <v>230.282735373632</v>
       </c>
       <c r="Q46" t="n">
-        <v>239.8891242919852</v>
+        <v>230.282735373632</v>
       </c>
       <c r="R46" t="n">
-        <v>239.8891242919852</v>
+        <v>230.282735373632</v>
       </c>
       <c r="S46" t="n">
-        <v>239.8891242919852</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1161423907485</v>
+        <v>227.116142390748</v>
       </c>
       <c r="U46" t="n">
-        <v>159.3361407966679</v>
+        <v>159.3361407966676</v>
       </c>
       <c r="V46" t="n">
-        <v>117.9981984094153</v>
+        <v>117.998198409415</v>
       </c>
       <c r="W46" t="n">
-        <v>51.23915898113918</v>
+        <v>51.23915898113901</v>
       </c>
       <c r="X46" t="n">
-        <v>39.38405693083973</v>
+        <v>39.38405693083965</v>
       </c>
       <c r="Y46" t="n">
         <v>36.74626017744161</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K26" t="n">
-        <v>112.5514835405492</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>542.9595789155856</v>
+        <v>331.1083966100763</v>
       </c>
       <c r="M26" t="n">
-        <v>527.9690662844956</v>
+        <v>95.67552786690354</v>
       </c>
       <c r="N26" t="n">
         <v>525.7306111916713</v>
@@ -9890,10 +9890,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3626208658183</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>66.98372024565214</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>105.8883978943461</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10030,25 +10030,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>77.67194102076724</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>211.2171120040207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>22.55412186984734</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>67.98250497112161</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P28" t="n">
-        <v>83.63942497583895</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q28" t="n">
         <v>84.9458458910769</v>
@@ -10112,19 +10112,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L29" t="n">
-        <v>227.5975880815679</v>
+        <v>541.6380693542558</v>
       </c>
       <c r="M29" t="n">
-        <v>527.9690662844955</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.4370727740792</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>495.0402356415689</v>
+        <v>330.913795440624</v>
       </c>
       <c r="P29" t="n">
         <v>418.3383206229274</v>
@@ -10185,16 +10185,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>76.71955400614101</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>66.98372024565214</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>52.12834372451952</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>206.7797827164752</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M31" t="n">
-        <v>192.0315361158424</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>67.98250497112161</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>175.5085323082534</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,25 +10349,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
-        <v>300.0743418434906</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M32" t="n">
-        <v>95.67552786690356</v>
+        <v>555.5409071762712</v>
       </c>
       <c r="N32" t="n">
-        <v>525.7306111916714</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P32" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>106.9123160056584</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N33" t="n">
-        <v>34.21620827668133</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.15265312299752</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.17817075471706</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10510,19 +10510,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M34" t="n">
-        <v>38.28018481040519</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>67.98250497112161</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>147.7314599629349</v>
       </c>
       <c r="P34" t="n">
-        <v>175.5085323082534</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>65.34834370944124</v>
+        <v>354.6763473247877</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>341.2991852368671</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>355.0830680164531</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>142.8501972325481</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10759,10 +10759,10 @@
         <v>79.46394233070271</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>307.7915481894362</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>96.9121006236025</v>
       </c>
       <c r="O38" t="n">
-        <v>341.299185236867</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>89.39473244672132</v>
+        <v>76.24414745277529</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -11063,16 +11063,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>351.469394720902</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>343.9527759952256</v>
       </c>
       <c r="N41" t="n">
-        <v>335.5619365583177</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>341.299185236867</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
-        <v>29.37311159841481</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>55.6246652923311</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11221,13 +11221,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>76.24414745277529</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>67.98250497112161</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.9458458910769</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>282.0423700009326</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>351.4693947209021</v>
       </c>
       <c r="M44" t="n">
-        <v>337.8003916511421</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>0.06353165397526084</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>355.083068016453</v>
       </c>
       <c r="Q44" t="n">
-        <v>123.998476334353</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24414745277531</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>83.63942497583895</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.5285412724724</v>
+        <v>28.07856436180492</v>
       </c>
       <c r="C11" t="n">
-        <v>16.08988131948658</v>
+        <v>162.5398582301543</v>
       </c>
       <c r="D11" t="n">
         <v>153.5211622746822</v>
       </c>
       <c r="E11" t="n">
-        <v>175.2632998445877</v>
+        <v>175.2632998445878</v>
       </c>
       <c r="F11" t="n">
         <v>194.4351159325649</v>
       </c>
       <c r="G11" t="n">
-        <v>195.8473966701474</v>
+        <v>195.8473966701475</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>108.582939057586</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.260172663732911</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>22.64706102966898</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>162.6352762233551</v>
+        <v>162.6352762233552</v>
       </c>
       <c r="Y11" t="n">
-        <v>163.0720698598736</v>
+        <v>27.58189710888632</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160.4553612021491</v>
+        <v>28.07856436180501</v>
       </c>
       <c r="C14" t="n">
-        <v>16.08988131948661</v>
+        <v>162.5398582301544</v>
       </c>
       <c r="D14" t="n">
-        <v>153.5211622746822</v>
+        <v>7.071185364014724</v>
       </c>
       <c r="E14" t="n">
-        <v>175.2632998445877</v>
+        <v>175.2632998445879</v>
       </c>
       <c r="F14" t="n">
-        <v>47.98513902189728</v>
+        <v>186.5902706929447</v>
       </c>
       <c r="G14" t="n">
-        <v>195.8473966701474</v>
+        <v>195.8473966701476</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5829390575859</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.260172663732855</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>36.72024109999222</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>143.3350179906086</v>
       </c>
       <c r="X14" t="n">
-        <v>162.6352762233551</v>
+        <v>162.6352762233552</v>
       </c>
       <c r="Y14" t="n">
-        <v>174.0318740195539</v>
+        <v>174.031874019554</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>635822.4582137788</v>
+        <v>635822.4582137786</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>853058.6720406177</v>
+        <v>853058.6720406176</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778793.1292623115</v>
+        <v>778793.1292623116</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>778793.1292623115</v>
+        <v>778793.1292623114</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778793.1292623114</v>
+        <v>778793.1292623113</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778793.1292623116</v>
+        <v>778793.1292623115</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>612701.3052058433</v>
+        <v>612701.3052058435</v>
       </c>
       <c r="C2" t="n">
-        <v>612701.3052058433</v>
+        <v>612701.3052058431</v>
       </c>
       <c r="D2" t="n">
-        <v>612701.3052058433</v>
+        <v>612701.3052058432</v>
       </c>
       <c r="E2" t="n">
         <v>535429.4384958139</v>
@@ -26326,34 +26326,34 @@
         <v>535429.4384958138</v>
       </c>
       <c r="G2" t="n">
-        <v>614099.2483953454</v>
+        <v>614099.2483953459</v>
       </c>
       <c r="H2" t="n">
-        <v>614099.2483953458</v>
+        <v>614099.2483953456</v>
       </c>
       <c r="I2" t="n">
-        <v>614099.2483953458</v>
+        <v>614099.2483953455</v>
       </c>
       <c r="J2" t="n">
+        <v>614099.2483953467</v>
+      </c>
+      <c r="K2" t="n">
         <v>614099.2483953459</v>
       </c>
-      <c r="K2" t="n">
-        <v>614099.2483953461</v>
-      </c>
       <c r="L2" t="n">
-        <v>614099.2483953454</v>
+        <v>614099.2483953462</v>
       </c>
       <c r="M2" t="n">
-        <v>614099.248395346</v>
+        <v>614099.2483953455</v>
       </c>
       <c r="N2" t="n">
-        <v>614099.2483953465</v>
+        <v>614099.2483953456</v>
       </c>
       <c r="O2" t="n">
+        <v>614099.2483953463</v>
+      </c>
+      <c r="P2" t="n">
         <v>614099.2483953459</v>
-      </c>
-      <c r="P2" t="n">
-        <v>614099.2483953449</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86866.35124606873</v>
+        <v>86866.35124606885</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>6.821210263296962e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>86866.35124606865</v>
+        <v>86866.35124606876</v>
       </c>
       <c r="M3" t="n">
-        <v>34974.9581781489</v>
+        <v>34974.95817814888</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>51921.40132280772</v>
@@ -26424,40 +26424,40 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>337492.0798944829</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="F4" t="n">
-        <v>337492.0798944828</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="G4" t="n">
+        <v>393534.1149340967</v>
+      </c>
+      <c r="H4" t="n">
         <v>393534.1149340968</v>
-      </c>
-      <c r="H4" t="n">
-        <v>393534.1149340967</v>
       </c>
       <c r="I4" t="n">
         <v>393534.1149340968</v>
       </c>
       <c r="J4" t="n">
+        <v>401705.6227511127</v>
+      </c>
+      <c r="K4" t="n">
         <v>401705.6227511126</v>
-      </c>
-      <c r="K4" t="n">
-        <v>401705.6227511127</v>
       </c>
       <c r="L4" t="n">
         <v>401705.6227511126</v>
       </c>
       <c r="M4" t="n">
-        <v>397296.6362691747</v>
+        <v>397296.6362691746</v>
       </c>
       <c r="N4" t="n">
         <v>397296.6362691747</v>
       </c>
       <c r="O4" t="n">
+        <v>397296.6362691748</v>
+      </c>
+      <c r="P4" t="n">
         <v>397296.6362691747</v>
-      </c>
-      <c r="P4" t="n">
-        <v>397296.6362691746</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29852.47964145842</v>
+        <v>29852.47964145841</v>
       </c>
       <c r="F5" t="n">
         <v>29852.47964145841</v>
@@ -26491,13 +26491,13 @@
         <v>38980.93874509061</v>
       </c>
       <c r="J5" t="n">
-        <v>54241.18391543765</v>
+        <v>54241.18391543766</v>
       </c>
       <c r="K5" t="n">
         <v>54241.18391543766</v>
       </c>
       <c r="L5" t="n">
-        <v>54241.18391543765</v>
+        <v>54241.18391543766</v>
       </c>
       <c r="M5" t="n">
         <v>49012.41251811756</v>
@@ -26506,10 +26506,10 @@
         <v>49012.41251811757</v>
       </c>
       <c r="O5" t="n">
+        <v>49012.41251811758</v>
+      </c>
+      <c r="P5" t="n">
         <v>49012.41251811757</v>
-      </c>
-      <c r="P5" t="n">
-        <v>49012.41251811756</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141936.5399944091</v>
+        <v>141932.1714219422</v>
       </c>
       <c r="C6" t="n">
-        <v>141936.5399944091</v>
+        <v>141932.1714219417</v>
       </c>
       <c r="D6" t="n">
-        <v>141936.5399944091</v>
+        <v>141932.1714219418</v>
       </c>
       <c r="E6" t="n">
-        <v>-152218.9710117168</v>
+        <v>-152464.8141676527</v>
       </c>
       <c r="F6" t="n">
-        <v>168084.8789598725</v>
+        <v>167839.0358039366</v>
       </c>
       <c r="G6" t="n">
-        <v>94717.84347008933</v>
+        <v>94717.84347008973</v>
       </c>
       <c r="H6" t="n">
-        <v>181584.1947161584</v>
+        <v>181584.1947161583</v>
       </c>
       <c r="I6" t="n">
-        <v>181584.1947161584</v>
+        <v>181584.1947161581</v>
       </c>
       <c r="J6" t="n">
-        <v>-13949.4408173437</v>
+        <v>-13949.44081734295</v>
       </c>
       <c r="K6" t="n">
-        <v>158152.4417287956</v>
+        <v>158152.4417287955</v>
       </c>
       <c r="L6" t="n">
-        <v>71286.09048272659</v>
+        <v>71286.09048272728</v>
       </c>
       <c r="M6" t="n">
-        <v>132815.2414299048</v>
+        <v>132815.2414299045</v>
       </c>
       <c r="N6" t="n">
-        <v>167790.1996080542</v>
+        <v>167790.1996080532</v>
       </c>
       <c r="O6" t="n">
-        <v>115868.7982852458</v>
+        <v>115868.7982852462</v>
       </c>
       <c r="P6" t="n">
-        <v>167790.1996080527</v>
+        <v>167790.1996080535</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F2" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="G2" t="n">
         <v>324.1575019079524</v>
@@ -26710,22 +26710,22 @@
         <v>173.4846907110955</v>
       </c>
       <c r="K2" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="L2" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="M2" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="N2" t="n">
         <v>217.2033884337816</v>
       </c>
       <c r="O2" t="n">
+        <v>217.2033884337817</v>
+      </c>
+      <c r="P2" t="n">
         <v>217.2033884337816</v>
-      </c>
-      <c r="P2" t="n">
-        <v>217.2033884337815</v>
       </c>
     </row>
     <row r="3">
@@ -26811,13 +26811,13 @@
         <v>146.4499769106676</v>
       </c>
       <c r="J4" t="n">
-        <v>605.7782291286876</v>
+        <v>605.7782291286877</v>
       </c>
       <c r="K4" t="n">
         <v>605.7782291286876</v>
       </c>
       <c r="L4" t="n">
-        <v>605.7782291286876</v>
+        <v>605.7782291286877</v>
       </c>
       <c r="M4" t="n">
         <v>459.3282522180201</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5829390575859</v>
+        <v>108.5829390575861</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.90175165350962</v>
+        <v>64.90175165350954</v>
       </c>
       <c r="K2" t="n">
         <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>108.5829390575858</v>
+        <v>108.5829390575859</v>
       </c>
       <c r="M2" t="n">
-        <v>43.71869772268613</v>
+        <v>43.7186977226861</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>64.90175165350965</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.32825221802</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.5829390575859</v>
+        <v>108.5829390575861</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350962</v>
+        <v>64.90175165350954</v>
       </c>
       <c r="P2" t="n">
         <v>8.526512829121202e-14</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="C11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="D11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="E11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="G11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="H11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="I11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="J11" t="n">
-        <v>102.8816634704624</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="K11" t="n">
-        <v>215.5745628503665</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L11" t="n">
-        <v>134.7681863165947</v>
+        <v>201.7349328879166</v>
       </c>
       <c r="M11" t="n">
-        <v>215.5745628503665</v>
+        <v>95.67552786690354</v>
       </c>
       <c r="N11" t="n">
-        <v>93.4370727740792</v>
+        <v>93.43707277407916</v>
       </c>
       <c r="O11" t="n">
-        <v>99.17432145262855</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="P11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5745628503665</v>
+        <v>142.4367897946829</v>
       </c>
       <c r="S11" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="12">
@@ -28190,25 +28190,25 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J12" t="n">
-        <v>76.71955400614101</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K12" t="n">
         <v>66.98372024565214</v>
       </c>
       <c r="L12" t="n">
-        <v>52.05064111562929</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M12" t="n">
-        <v>44.85432453608081</v>
+        <v>80.13867647768986</v>
       </c>
       <c r="N12" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O12" t="n">
-        <v>84.82144086512248</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P12" t="n">
-        <v>55.6246652923311</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q12" t="n">
         <v>78.15265312299752</v>
@@ -28223,13 +28223,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U12" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V12" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W12" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28254,31 +28254,31 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9968542415478</v>
+        <v>177.7469963697425</v>
       </c>
       <c r="H13" t="n">
         <v>155.7011408377324</v>
       </c>
       <c r="I13" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J13" t="n">
-        <v>86.66140878686464</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K13" t="n">
-        <v>215.5745628503665</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L13" t="n">
-        <v>74.84944336390259</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M13" t="n">
-        <v>76.24414745277531</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="N13" t="n">
         <v>67.98250497112161</v>
@@ -28287,34 +28287,34 @@
         <v>79.46394233070271</v>
       </c>
       <c r="P13" t="n">
-        <v>83.63942497583895</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q13" t="n">
         <v>103.5288848663845</v>
       </c>
       <c r="R13" t="n">
-        <v>214.7822753986393</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S13" t="n">
         <v>207.4999652839304</v>
       </c>
       <c r="T13" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="U13" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="V13" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="W13" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="X13" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503664</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="C14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="D14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="E14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="F14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="G14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="H14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="I14" t="n">
         <v>151.0036693235603</v>
       </c>
       <c r="J14" t="n">
-        <v>102.8816634704624</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="K14" t="n">
-        <v>215.5745628503665</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L14" t="n">
-        <v>109.3445309366637</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="M14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="N14" t="n">
-        <v>93.4370727740792</v>
+        <v>93.43707277407916</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="P14" t="n">
-        <v>215.5745628503665</v>
+        <v>112.9582042322146</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="R14" t="n">
-        <v>147.0789982200948</v>
+        <v>175.8853769937287</v>
       </c>
       <c r="S14" t="n">
-        <v>215.5745628503665</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="U14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="V14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="W14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="X14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>172.7346025812994</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -28427,25 +28427,25 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J15" t="n">
-        <v>76.71955400614101</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K15" t="n">
         <v>66.98372024565214</v>
       </c>
       <c r="L15" t="n">
-        <v>52.05064111562929</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M15" t="n">
-        <v>80.13867647768971</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N15" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O15" t="n">
-        <v>49.53708892351366</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P15" t="n">
-        <v>55.6246652923311</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q15" t="n">
         <v>78.15265312299752</v>
@@ -28460,13 +28460,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U15" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="V15" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="W15" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -28503,55 +28503,55 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I16" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J16" t="n">
-        <v>86.66140878686464</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K16" t="n">
-        <v>77.67194102076724</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L16" t="n">
-        <v>74.84944336390259</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M16" t="n">
-        <v>76.24414745277531</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="N16" t="n">
         <v>67.98250497112161</v>
       </c>
       <c r="O16" t="n">
-        <v>215.5745628503665</v>
+        <v>79.46394233070271</v>
       </c>
       <c r="P16" t="n">
-        <v>83.63942497583895</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q16" t="n">
-        <v>182.5844606265784</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R16" t="n">
-        <v>137.5187009483811</v>
+        <v>213.3544818306486</v>
       </c>
       <c r="S16" t="n">
         <v>207.4999652839304</v>
       </c>
       <c r="T16" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="U16" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="V16" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="W16" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="X16" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.5745628503665</v>
+        <v>215.5745628503663</v>
       </c>
     </row>
     <row r="17">
@@ -28585,40 +28585,40 @@
         <v>151.0036693235603</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8816634704624</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K17" t="n">
-        <v>259.0014604512168</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L17" t="n">
-        <v>109.3445309366637</v>
+        <v>249.8773370630619</v>
       </c>
       <c r="M17" t="n">
-        <v>95.67552786690356</v>
+        <v>242.1255047775711</v>
       </c>
       <c r="N17" t="n">
-        <v>93.4370727740792</v>
+        <v>239.8870496847468</v>
       </c>
       <c r="O17" t="n">
-        <v>99.17432145262855</v>
+        <v>99.1743214526285</v>
       </c>
       <c r="P17" t="n">
-        <v>259.4081811428822</v>
+        <v>112.9582042322146</v>
       </c>
       <c r="Q17" t="n">
         <v>124.3626208658183</v>
       </c>
       <c r="R17" t="n">
-        <v>253.2341084803019</v>
+        <v>288.8867667053505</v>
       </c>
       <c r="S17" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T17" t="n">
-        <v>324.1575019079524</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U17" t="n">
-        <v>324.1575019079524</v>
+        <v>252.2948039503587</v>
       </c>
       <c r="V17" t="n">
         <v>324.1575019079524</v>
@@ -28664,25 +28664,25 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J18" t="n">
-        <v>76.71955400614101</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K18" t="n">
         <v>66.98372024565214</v>
       </c>
       <c r="L18" t="n">
-        <v>52.05064111562929</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M18" t="n">
-        <v>44.85432453608081</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N18" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O18" t="n">
-        <v>49.53708892351366</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P18" t="n">
-        <v>55.6246652923311</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q18" t="n">
         <v>78.15265312299752</v>
@@ -28740,19 +28740,19 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I19" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J19" t="n">
-        <v>86.66140878686464</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K19" t="n">
-        <v>77.67194102076724</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L19" t="n">
-        <v>74.84944336390259</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M19" t="n">
-        <v>76.24414745277531</v>
+        <v>76.24414745277529</v>
       </c>
       <c r="N19" t="n">
         <v>67.98250497112161</v>
@@ -28761,7 +28761,7 @@
         <v>79.46394233070271</v>
       </c>
       <c r="P19" t="n">
-        <v>83.63942497583895</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q19" t="n">
         <v>103.5288848663845</v>
@@ -28819,40 +28819,40 @@
         <v>324.1575019079524</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4536462342279</v>
+        <v>291.5364754499585</v>
       </c>
       <c r="J20" t="n">
-        <v>249.33164038113</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K20" t="n">
         <v>112.5514835405492</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5545706692088</v>
+        <v>109.3445309366637</v>
       </c>
       <c r="M20" t="n">
-        <v>95.67552786690356</v>
+        <v>242.1255047775711</v>
       </c>
       <c r="N20" t="n">
-        <v>93.4370727740792</v>
+        <v>93.43707277407916</v>
       </c>
       <c r="O20" t="n">
-        <v>245.6242983632961</v>
+        <v>99.1743214526285</v>
       </c>
       <c r="P20" t="n">
         <v>112.9582042322146</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.3626208658183</v>
+        <v>270.8125977764859</v>
       </c>
       <c r="R20" t="n">
         <v>142.4367897946829</v>
       </c>
       <c r="S20" t="n">
-        <v>173.4846907110956</v>
+        <v>319.9346676217631</v>
       </c>
       <c r="T20" t="n">
-        <v>324.1575019079524</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U20" t="n">
         <v>252.2948039503587</v>
@@ -28901,25 +28901,25 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J21" t="n">
-        <v>76.71955400614101</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K21" t="n">
         <v>66.98372024565214</v>
       </c>
       <c r="L21" t="n">
-        <v>52.05064111562929</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M21" t="n">
-        <v>44.85432453608081</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N21" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O21" t="n">
-        <v>49.53708892351366</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P21" t="n">
-        <v>55.6246652923311</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q21" t="n">
         <v>78.15265312299752</v>
@@ -28977,19 +28977,19 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I22" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J22" t="n">
-        <v>86.66140878686464</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K22" t="n">
-        <v>77.67194102076724</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L22" t="n">
-        <v>74.84944336390259</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M22" t="n">
-        <v>76.24414745277531</v>
+        <v>76.24414745277529</v>
       </c>
       <c r="N22" t="n">
         <v>67.98250497112161</v>
@@ -28998,7 +28998,7 @@
         <v>79.46394233070271</v>
       </c>
       <c r="P22" t="n">
-        <v>83.63942497583895</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q22" t="n">
         <v>103.5288848663845</v>
@@ -29056,31 +29056,31 @@
         <v>324.1575019079524</v>
       </c>
       <c r="I23" t="n">
-        <v>151.0036693235603</v>
+        <v>219.6737774923649</v>
       </c>
       <c r="J23" t="n">
-        <v>102.8816634704624</v>
+        <v>249.3316403811299</v>
       </c>
       <c r="K23" t="n">
         <v>112.5514835405492</v>
       </c>
       <c r="L23" t="n">
-        <v>255.7945078473313</v>
+        <v>109.3445309366637</v>
       </c>
       <c r="M23" t="n">
-        <v>95.67552786690356</v>
+        <v>95.67552786690354</v>
       </c>
       <c r="N23" t="n">
-        <v>239.8870496847468</v>
+        <v>93.43707277407916</v>
       </c>
       <c r="O23" t="n">
-        <v>99.17432145262855</v>
+        <v>245.6242983632961</v>
       </c>
       <c r="P23" t="n">
         <v>112.9582042322146</v>
       </c>
       <c r="Q23" t="n">
-        <v>193.0327290346229</v>
+        <v>124.3626208658183</v>
       </c>
       <c r="R23" t="n">
         <v>142.4367897946829</v>
@@ -29138,25 +29138,25 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J24" t="n">
-        <v>76.71955400614101</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K24" t="n">
         <v>66.98372024565214</v>
       </c>
       <c r="L24" t="n">
-        <v>52.05064111562929</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M24" t="n">
-        <v>44.85432453608081</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N24" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O24" t="n">
-        <v>49.53708892351366</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P24" t="n">
-        <v>55.6246652923311</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q24" t="n">
         <v>78.15265312299752</v>
@@ -29214,19 +29214,19 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I25" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J25" t="n">
-        <v>86.66140878686464</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K25" t="n">
-        <v>77.67194102076724</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L25" t="n">
-        <v>74.84944336390259</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M25" t="n">
-        <v>76.24414745277531</v>
+        <v>76.24414745277529</v>
       </c>
       <c r="N25" t="n">
         <v>67.98250497112161</v>
@@ -29235,7 +29235,7 @@
         <v>79.46394233070271</v>
       </c>
       <c r="P25" t="n">
-        <v>83.63942497583895</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q25" t="n">
         <v>103.5288848663845</v>
@@ -29296,16 +29296,16 @@
         <v>173.4846907110955</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>171.339179363774</v>
+      </c>
+      <c r="L26" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>30.50438222576469</v>
-      </c>
       <c r="M26" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>173.4846907110955</v>
@@ -29314,13 +29314,13 @@
         <v>173.4846907110955</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
-        <v>57.00544395980574</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="S26" t="n">
         <v>173.4846907110955</v>
@@ -29375,25 +29375,25 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J27" t="n">
-        <v>76.71955400614101</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K27" t="n">
-        <v>66.98372024565214</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>129.7052815538357</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>44.85432453608081</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N27" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="O27" t="n">
-        <v>49.53708892351366</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P27" t="n">
-        <v>55.6246652923311</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>78.15265312299752</v>
@@ -29402,7 +29402,7 @@
         <v>101.057477245434</v>
       </c>
       <c r="S27" t="n">
-        <v>146.0937828749041</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T27" t="n">
         <v>173.4846907110955</v>
@@ -29439,10 +29439,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>173.4846907110955</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>173.4846907110955</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
         <v>166.9968542415478</v>
@@ -29451,34 +29451,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I28" t="n">
+        <v>135.7331106864344</v>
+      </c>
+      <c r="J28" t="n">
+        <v>86.66140878686463</v>
+      </c>
+      <c r="K28" t="n">
+        <v>77.67194102076722</v>
+      </c>
+      <c r="L28" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="J28" t="n">
-        <v>42.9342950673243</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>166.3106558658324</v>
-      </c>
       <c r="M28" t="n">
-        <v>53.69002558292798</v>
+        <v>76.24414745277529</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>67.98250497112161</v>
       </c>
       <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>38.04502121479499</v>
+      </c>
+      <c r="Q28" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>18.58303897530763</v>
-      </c>
       <c r="R28" t="n">
-        <v>173.4846907110955</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S28" t="n">
         <v>173.4846907110955</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="D29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="E29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="G29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I29" t="n">
         <v>151.0036693235603</v>
       </c>
       <c r="J29" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>6.902382315488224</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="R29" t="n">
-        <v>173.4846907110956</v>
+        <v>57.00544395980572</v>
       </c>
       <c r="S29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>173.4846907110956</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
         <v>160.0866360314548</v>
@@ -29606,34 +29606,34 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H30" t="n">
-        <v>173.4846907110956</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I30" t="n">
-        <v>71.26452700773518</v>
+        <v>58.10105571457478</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>66.98372024565214</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M30" t="n">
-        <v>44.85432453608081</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N30" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O30" t="n">
-        <v>173.4846907110956</v>
+        <v>137.8330822026564</v>
       </c>
       <c r="P30" t="n">
-        <v>55.6246652923311</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.15265312299752</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>101.057477245434</v>
@@ -29642,22 +29642,22 @@
         <v>146.0937828749041</v>
       </c>
       <c r="T30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -29676,67 +29676,67 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>173.4846907110956</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9968542415478</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I31" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J31" t="n">
         <v>42.9342950673243</v>
       </c>
       <c r="K31" t="n">
-        <v>77.67194102076724</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>74.84944336390259</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>76.24414745277529</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O31" t="n">
-        <v>173.4846907110956</v>
+        <v>79.46394233070271</v>
       </c>
       <c r="P31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.5288848663845</v>
+        <v>91.54242083450063</v>
       </c>
       <c r="R31" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="C32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="D32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="E32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="F32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="G32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="H32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="I32" t="n">
-        <v>151.0036693235603</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="K32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="O32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="P32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.9103192646609</v>
+        <v>17.45030486015993</v>
       </c>
       <c r="R32" t="n">
-        <v>173.4846907110955</v>
+        <v>57.00544395980572</v>
       </c>
       <c r="S32" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="T32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="U32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="V32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="W32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="X32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
     </row>
     <row r="33">
@@ -29831,70 +29831,70 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>173.4846907110955</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="G33" t="n">
-        <v>127.1624622715678</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="H33" t="n">
         <v>96.24631459259477</v>
       </c>
       <c r="I33" t="n">
-        <v>71.26452700773518</v>
+        <v>58.10105571457478</v>
       </c>
       <c r="J33" t="n">
-        <v>173.4846907110955</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K33" t="n">
-        <v>66.98372024565214</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="L33" t="n">
-        <v>136.1741872118904</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M33" t="n">
-        <v>44.85432453608081</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O33" t="n">
-        <v>49.53708892351366</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P33" t="n">
-        <v>55.6246652923311</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>78.15265312299752</v>
       </c>
       <c r="R33" t="n">
-        <v>41.87930649071693</v>
+        <v>125.0195705716133</v>
       </c>
       <c r="S33" t="n">
         <v>146.0937828749041</v>
       </c>
       <c r="T33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="U33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="V33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="W33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="X33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="Y33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -29913,7 +29913,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
@@ -29925,55 +29925,55 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I34" t="n">
-        <v>173.4846907110955</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J34" t="n">
-        <v>173.4846907110955</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K34" t="n">
-        <v>77.67194102076724</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="L34" t="n">
-        <v>74.84944336390259</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>173.4846907110955</v>
+        <v>76.24414745277529</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q34" t="n">
-        <v>173.4846907110955</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R34" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="T34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="U34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="V34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="W34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="X34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="C35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="D35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="E35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="F35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="G35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="H35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="I35" t="n">
         <v>151.0036693235603</v>
       </c>
       <c r="J35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="K35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="L35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="M35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="N35" t="n">
-        <v>93.4370727740792</v>
+        <v>93.43707277407916</v>
       </c>
       <c r="O35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="P35" t="n">
-        <v>166.0830546487548</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.2033884337816</v>
+        <v>215.9560586028466</v>
       </c>
       <c r="R35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="S35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="U35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="V35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="W35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="X35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="Y35" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
     </row>
     <row r="36">
@@ -30077,7 +30077,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>158.39152005915</v>
+        <v>127.1624622715678</v>
       </c>
       <c r="H36" t="n">
         <v>96.24631459259477</v>
@@ -30086,31 +30086,31 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J36" t="n">
-        <v>76.71955400614101</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K36" t="n">
         <v>66.98372024565214</v>
       </c>
       <c r="L36" t="n">
-        <v>52.05064111562929</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M36" t="n">
-        <v>44.85432453608081</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N36" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O36" t="n">
-        <v>49.53708892351366</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P36" t="n">
-        <v>55.6246652923311</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q36" t="n">
         <v>78.15265312299752</v>
       </c>
       <c r="R36" t="n">
-        <v>101.057477245434</v>
+        <v>132.2865350330162</v>
       </c>
       <c r="S36" t="n">
         <v>146.0937828749041</v>
@@ -30122,10 +30122,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V36" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="W36" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -30150,7 +30150,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>217.2033884337816</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -30162,19 +30162,19 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I37" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J37" t="n">
-        <v>217.2033884337816</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K37" t="n">
-        <v>77.67194102076724</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L37" t="n">
-        <v>74.84944336390259</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24414745277531</v>
+        <v>179.8664292074224</v>
       </c>
       <c r="N37" t="n">
         <v>67.98250497112161</v>
@@ -30183,34 +30183,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>91.57779322834713</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.58303897530763</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R37" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S37" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="U37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="V37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="W37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="X37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="I38" t="n">
-        <v>198.7935913491122</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="J38" t="n">
         <v>217.2033884337816</v>
@@ -30250,13 +30250,13 @@
         <v>217.2033884337816</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>179.9218574434281</v>
+      </c>
+      <c r="N38" t="n">
         <v>217.2033884337816</v>
-      </c>
-      <c r="M38" t="n">
-        <v>95.67552786690356</v>
-      </c>
-      <c r="N38" t="n">
-        <v>93.4370727740792</v>
       </c>
       <c r="O38" t="n">
         <v>217.2033884337816</v>
@@ -30323,25 +30323,25 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J39" t="n">
-        <v>76.71955400614101</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K39" t="n">
         <v>66.98372024565214</v>
       </c>
       <c r="L39" t="n">
-        <v>52.05064111562929</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M39" t="n">
-        <v>44.85432453608081</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N39" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O39" t="n">
-        <v>80.76614671109574</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P39" t="n">
-        <v>55.6246652923311</v>
+        <v>86.85372307991315</v>
       </c>
       <c r="Q39" t="n">
         <v>78.15265312299752</v>
@@ -30396,19 +30396,19 @@
         <v>166.9968542415478</v>
       </c>
       <c r="H40" t="n">
+        <v>155.7011408377324</v>
+      </c>
+      <c r="I40" t="n">
         <v>217.2033884337816</v>
       </c>
-      <c r="I40" t="n">
-        <v>135.7331106864345</v>
-      </c>
       <c r="J40" t="n">
-        <v>217.2033884337816</v>
+        <v>42.9342950673243</v>
       </c>
       <c r="K40" t="n">
-        <v>77.67194102076724</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L40" t="n">
-        <v>74.84944336390259</v>
+        <v>74.84944336390258</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,10 +30417,10 @@
         <v>67.98250497112161</v>
       </c>
       <c r="O40" t="n">
-        <v>79.46394233070271</v>
+        <v>193.4850536704165</v>
       </c>
       <c r="P40" t="n">
-        <v>83.63942497583895</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q40" t="n">
         <v>103.5288848663845</v>
@@ -30429,7 +30429,7 @@
         <v>137.5187009483811</v>
       </c>
       <c r="S40" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T40" t="n">
         <v>217.2033884337816</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="C41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="D41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="E41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="F41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="G41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="H41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="I41" t="n">
-        <v>217.2033884337816</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="K41" t="n">
-        <v>217.2033884337816</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="M41" t="n">
-        <v>217.2033884337816</v>
+        <v>163.4509476710375</v>
       </c>
       <c r="N41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="O41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="P41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Q41" t="n">
-        <v>25.5059587127988</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="R41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="S41" t="n">
-        <v>173.4846907110956</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="42">
@@ -30557,28 +30557,28 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I42" t="n">
-        <v>71.26452700773518</v>
+        <v>102.4935847953171</v>
       </c>
       <c r="J42" t="n">
-        <v>107.9486117937231</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K42" t="n">
         <v>66.98372024565214</v>
       </c>
       <c r="L42" t="n">
-        <v>52.05064111562929</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M42" t="n">
-        <v>44.85432453608081</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N42" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O42" t="n">
-        <v>49.53708892351366</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q42" t="n">
         <v>78.15265312299752</v>
@@ -30596,10 +30596,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V42" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W42" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -30636,31 +30636,31 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I43" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J43" t="n">
-        <v>86.66140878686464</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K43" t="n">
-        <v>217.2033884337816</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L43" t="n">
-        <v>74.84944336390259</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24414745277531</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>67.98250497112161</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>145.1273071546005</v>
+        <v>79.46394233070271</v>
       </c>
       <c r="P43" t="n">
-        <v>83.63942497583895</v>
+        <v>175.1597336453534</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.58303897530763</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="R43" t="n">
         <v>137.5187009483811</v>
@@ -30669,22 +30669,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="C44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="D44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="E44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="F44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="G44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="H44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="I44" t="n">
-        <v>217.2033884337815</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="K44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="L44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="M44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="N44" t="n">
-        <v>217.2033884337815</v>
+        <v>93.43707277407916</v>
       </c>
       <c r="O44" t="n">
-        <v>217.2033884337815</v>
+        <v>142.1240770616085</v>
       </c>
       <c r="P44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3641445314653501</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="R44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="S44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y44" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
     <row r="45">
@@ -30797,25 +30797,25 @@
         <v>71.26452700773518</v>
       </c>
       <c r="J45" t="n">
-        <v>107.9486117937233</v>
+        <v>76.719554006141</v>
       </c>
       <c r="K45" t="n">
         <v>66.98372024565214</v>
       </c>
       <c r="L45" t="n">
-        <v>52.05064111562929</v>
+        <v>52.05064111562927</v>
       </c>
       <c r="M45" t="n">
-        <v>44.85432453608081</v>
+        <v>44.85432453608078</v>
       </c>
       <c r="N45" t="n">
-        <v>34.21620827668133</v>
+        <v>34.2162082766813</v>
       </c>
       <c r="O45" t="n">
-        <v>49.53708892351366</v>
+        <v>49.53708892351364</v>
       </c>
       <c r="P45" t="n">
-        <v>55.6246652923311</v>
+        <v>55.62466529233108</v>
       </c>
       <c r="Q45" t="n">
         <v>78.15265312299752</v>
@@ -30824,7 +30824,7 @@
         <v>101.057477245434</v>
       </c>
       <c r="S45" t="n">
-        <v>146.0937828749041</v>
+        <v>177.3228406624862</v>
       </c>
       <c r="T45" t="n">
         <v>185.6746837770579</v>
@@ -30833,10 +30833,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V45" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W45" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -30873,55 +30873,55 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I46" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J46" t="n">
-        <v>86.66140878686464</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K46" t="n">
-        <v>217.2033884337815</v>
+        <v>77.67194102076722</v>
       </c>
       <c r="L46" t="n">
-        <v>74.84944336390259</v>
+        <v>132.6013863478847</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>76.24414745277529</v>
       </c>
       <c r="N46" t="n">
         <v>67.98250497112161</v>
       </c>
       <c r="O46" t="n">
-        <v>145.1273071546012</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.58303897530763</v>
+        <v>18.58303897530762</v>
       </c>
       <c r="R46" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S46" t="n">
-        <v>207.4999652839304</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T46" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="U46" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="V46" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="W46" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="X46" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.2033884337815</v>
+        <v>217.2033884337816</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H11" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I11" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J11" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K11" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L11" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M11" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N11" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O11" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P11" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R11" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S11" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T11" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H12" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I12" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J12" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K12" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L12" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M12" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N12" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O12" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P12" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R12" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S12" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T12" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H13" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I13" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J13" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K13" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L13" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M13" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N13" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O13" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P13" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q13" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R13" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S13" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U13" t="n">
         <v>0.01274710386985577</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H14" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I14" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J14" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K14" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L14" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M14" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N14" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O14" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P14" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R14" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S14" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T14" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H15" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I15" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J15" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K15" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L15" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M15" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N15" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O15" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P15" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R15" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S15" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T15" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H16" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I16" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J16" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K16" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L16" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M16" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N16" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O16" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P16" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q16" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R16" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S16" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U16" t="n">
         <v>0.01274710386985577</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H17" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I17" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J17" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K17" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L17" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M17" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N17" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O17" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P17" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R17" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S17" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T17" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H18" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I18" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J18" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K18" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L18" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M18" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N18" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O18" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P18" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R18" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S18" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T18" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H19" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I19" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J19" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K19" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L19" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M19" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N19" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O19" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P19" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q19" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R19" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S19" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U19" t="n">
         <v>0.01274710386985577</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H20" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I20" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J20" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K20" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L20" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M20" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N20" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O20" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P20" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R20" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S20" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T20" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H21" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I21" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J21" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K21" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L21" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M21" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N21" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O21" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P21" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R21" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S21" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T21" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H22" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I22" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J22" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K22" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L22" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M22" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N22" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O22" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P22" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q22" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R22" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S22" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U22" t="n">
         <v>0.01274710386985577</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H23" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I23" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J23" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K23" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L23" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M23" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N23" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O23" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P23" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R23" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S23" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T23" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H24" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I24" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J24" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K24" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L24" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M24" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N24" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O24" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P24" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R24" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S24" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T24" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H25" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I25" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J25" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K25" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L25" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M25" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N25" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O25" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P25" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q25" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R25" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S25" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U25" t="n">
         <v>0.01274710386985577</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H26" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I26" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J26" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K26" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L26" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M26" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N26" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O26" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P26" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R26" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S26" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T26" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H27" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I27" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J27" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K27" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L27" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M27" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N27" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O27" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P27" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R27" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S27" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T27" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H28" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I28" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J28" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K28" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L28" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M28" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N28" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O28" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P28" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q28" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R28" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S28" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U28" t="n">
         <v>0.01274710386985577</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H29" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I29" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J29" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K29" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L29" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M29" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N29" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O29" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P29" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R29" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S29" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T29" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H30" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I30" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J30" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K30" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L30" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M30" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N30" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O30" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P30" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R30" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S30" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T30" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H31" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I31" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J31" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K31" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L31" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M31" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N31" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O31" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P31" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q31" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R31" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S31" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U31" t="n">
         <v>0.01274710386985577</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H32" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I32" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J32" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K32" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L32" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M32" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N32" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O32" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P32" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R32" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S32" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T32" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H33" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I33" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J33" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K33" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L33" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M33" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N33" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O33" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P33" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R33" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S33" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T33" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H34" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I34" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J34" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K34" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L34" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M34" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N34" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O34" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P34" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q34" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R34" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S34" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U34" t="n">
         <v>0.01274710386985577</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H35" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I35" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J35" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K35" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L35" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M35" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N35" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O35" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P35" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R35" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S35" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T35" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H36" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I36" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J36" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K36" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L36" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M36" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N36" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O36" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P36" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R36" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S36" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T36" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H37" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I37" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J37" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K37" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L37" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M37" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N37" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O37" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P37" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q37" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R37" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S37" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U37" t="n">
         <v>0.01274710386985577</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H38" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I38" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J38" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K38" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L38" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M38" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N38" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O38" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P38" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R38" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S38" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T38" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H39" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I39" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J39" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K39" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L39" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M39" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N39" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O39" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P39" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R39" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S39" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T39" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H40" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I40" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J40" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K40" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L40" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M40" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N40" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O40" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P40" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q40" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R40" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S40" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U40" t="n">
         <v>0.01274710386985577</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H41" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I41" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J41" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K41" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L41" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M41" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N41" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O41" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P41" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R41" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S41" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T41" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H42" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I42" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J42" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K42" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L42" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M42" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N42" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O42" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P42" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R42" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S42" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T42" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H43" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I43" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J43" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K43" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L43" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M43" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N43" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O43" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P43" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q43" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R43" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S43" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U43" t="n">
         <v>0.01274710386985577</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5209871598400003</v>
+        <v>0.5209871598400005</v>
       </c>
       <c r="H44" t="n">
-        <v>5.335559750711404</v>
+        <v>5.335559750711407</v>
       </c>
       <c r="I44" t="n">
-        <v>20.08535747973163</v>
+        <v>20.08535747973164</v>
       </c>
       <c r="J44" t="n">
-        <v>44.21813395747026</v>
+        <v>44.21813395747029</v>
       </c>
       <c r="K44" t="n">
-        <v>66.27152043349749</v>
+        <v>66.27152043349751</v>
       </c>
       <c r="L44" t="n">
-        <v>82.21568122645091</v>
+        <v>82.21568122645095</v>
       </c>
       <c r="M44" t="n">
-        <v>91.48078663025552</v>
+        <v>91.48078663025555</v>
       </c>
       <c r="N44" t="n">
-        <v>92.96104139815093</v>
+        <v>92.96104139815097</v>
       </c>
       <c r="O44" t="n">
-        <v>87.78047532749191</v>
+        <v>87.78047532749196</v>
       </c>
       <c r="P44" t="n">
-        <v>74.9186048189419</v>
+        <v>74.91860481894193</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.26075215717187</v>
+        <v>56.26075215717189</v>
       </c>
       <c r="R44" t="n">
-        <v>32.72645967929945</v>
+        <v>32.72645967929946</v>
       </c>
       <c r="S44" t="n">
         <v>11.87199490485402</v>
       </c>
       <c r="T44" t="n">
-        <v>2.280621292199602</v>
+        <v>2.280621292199604</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04167897278720002</v>
+        <v>0.04167897278720004</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2787527053804306</v>
+        <v>0.2787527053804307</v>
       </c>
       <c r="H45" t="n">
-        <v>2.692164286174159</v>
+        <v>2.69216428617416</v>
       </c>
       <c r="I45" t="n">
-        <v>9.597406742264825</v>
+        <v>9.59740674226483</v>
       </c>
       <c r="J45" t="n">
-        <v>26.33601766052568</v>
+        <v>26.33601766052569</v>
       </c>
       <c r="K45" t="n">
-        <v>45.01244892101453</v>
+        <v>45.01244892101455</v>
       </c>
       <c r="L45" t="n">
-        <v>60.52479245551849</v>
+        <v>60.52479245551852</v>
       </c>
       <c r="M45" t="n">
-        <v>70.62957802555908</v>
+        <v>70.62957802555911</v>
       </c>
       <c r="N45" t="n">
-        <v>72.49893279102699</v>
+        <v>72.49893279102702</v>
       </c>
       <c r="O45" t="n">
-        <v>66.32235968759744</v>
+        <v>66.32235968759747</v>
       </c>
       <c r="P45" t="n">
-        <v>53.22954073181222</v>
+        <v>53.22954073181224</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.58253832189497</v>
+        <v>35.58253832189498</v>
       </c>
       <c r="R45" t="n">
-        <v>17.30711972528674</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S45" t="n">
-        <v>5.177709242482994</v>
+        <v>5.177709242482996</v>
       </c>
       <c r="T45" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01833899377502833</v>
+        <v>0.01833899377502834</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2336969042806888</v>
+        <v>0.2336969042806889</v>
       </c>
       <c r="H46" t="n">
-        <v>2.077777930786489</v>
+        <v>2.07777793078649</v>
       </c>
       <c r="I46" t="n">
-        <v>7.027903266913808</v>
+        <v>7.02790326691381</v>
       </c>
       <c r="J46" t="n">
         <v>16.5223711326447</v>
       </c>
       <c r="K46" t="n">
-        <v>27.15133124279275</v>
+        <v>27.15133124279276</v>
       </c>
       <c r="L46" t="n">
-        <v>34.74435611460351</v>
+        <v>34.74435611460352</v>
       </c>
       <c r="M46" t="n">
-        <v>36.63305200465378</v>
+        <v>36.63305200465381</v>
       </c>
       <c r="N46" t="n">
-        <v>35.76199990688034</v>
+        <v>35.76199990688036</v>
       </c>
       <c r="O46" t="n">
-        <v>33.03199516141955</v>
+        <v>33.03199516141957</v>
       </c>
       <c r="P46" t="n">
-        <v>28.26457831409348</v>
+        <v>28.26457831409349</v>
       </c>
       <c r="Q46" t="n">
         <v>19.56892895754023</v>
       </c>
       <c r="R46" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S46" t="n">
-        <v>4.072699686418912</v>
+        <v>4.072699686418914</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9985231364720337</v>
+        <v>0.9985231364720342</v>
       </c>
       <c r="U46" t="n">
         <v>0.01274710386985577</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.57089352680619</v>
+        <v>64.57089352680612</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>112.6928993799041</v>
       </c>
       <c r="K11" t="n">
-        <v>103.0230793098173</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>25.42365537993098</v>
+        <v>92.39040195125297</v>
       </c>
       <c r="M11" t="n">
-        <v>119.8990349834629</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>116.4002413977379</v>
       </c>
       <c r="P11" t="n">
-        <v>102.6163586181519</v>
+        <v>102.6163586181518</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.21194198454816</v>
+        <v>91.21194198454809</v>
       </c>
       <c r="R11" t="n">
-        <v>73.1377730556836</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>35.28435194160907</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>35.28435194160882</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35550,13 +35550,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.08563875407208</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>10.75014212819475</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>137.9026218295993</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>139.3304153975911</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35589,7 +35589,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.26357445025819</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,34 +35644,34 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>112.692899379904</v>
       </c>
       <c r="K14" t="n">
-        <v>103.0230793098172</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>106.2300319137027</v>
       </c>
       <c r="M14" t="n">
-        <v>119.8990349834629</v>
+        <v>119.8990349834628</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>116.4002413977379</v>
+        <v>116.4002413977378</v>
       </c>
       <c r="P14" t="n">
-        <v>102.6163586181519</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.21194198454813</v>
+        <v>91.21194198454801</v>
       </c>
       <c r="R14" t="n">
-        <v>4.642208425411924</v>
+        <v>33.44858719904578</v>
       </c>
       <c r="S14" t="n">
-        <v>42.08987213927092</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>35.28435194160933</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>35.2843519416089</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35811,22 +35811,22 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>139.330415397591</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>136.1106205196638</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.05557576019385</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>75.83578088226749</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35884,37 +35884,37 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>140.5328061263982</v>
+      </c>
+      <c r="M17" t="n">
         <v>146.4499769106676</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>146.4499769106676</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>110.797318685619</v>
-      </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>104.3227663938531</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>71.8626979575937</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,40 +36115,40 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>140.5328061263982</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>146.4499769106676</v>
       </c>
-      <c r="J20" t="n">
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>146.4499769106676</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>36.21003973254513</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>146.4499769106676</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" t="n">
-        <v>104.3227663938531</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>68.67010816880459</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>146.4499769106676</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>146.4499769106676</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.67010816880456</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>22.4810213875352</v>
       </c>
       <c r="J26" t="n">
-        <v>70.60302724063314</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>58.78769582322484</v>
       </c>
       <c r="L26" t="n">
-        <v>464.1194302046865</v>
+        <v>395.2485563845081</v>
       </c>
       <c r="M26" t="n">
-        <v>605.7782291286876</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>605.7782291286876</v>
+        <v>605.7782291286877</v>
       </c>
       <c r="O26" t="n">
-        <v>569.3506049000358</v>
+        <v>569.3506049000359</v>
       </c>
       <c r="P26" t="n">
-        <v>60.52648647888091</v>
+        <v>305.3801163907128</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>325.1315577031533</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>116.4792467512898</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>77.65464043820643</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>50.263732602015</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>27.3909078361914</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>22.99576661480117</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>22.52884228661486</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>37.75158002466107</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>302.6783245059505</v>
+        <v>98.63524734719293</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>94.0207483803928</v>
+        <v>132.4902239449445</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>129.9141285472095</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>154.9016517357879</v>
       </c>
       <c r="R28" t="n">
-        <v>35.96598976271437</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>290.4286269643291</v>
+        <v>116.9439362532336</v>
       </c>
       <c r="K29" t="n">
-        <v>60.93320717054634</v>
+        <v>308.8375528019649</v>
       </c>
       <c r="L29" t="n">
-        <v>125.1554394603924</v>
+        <v>605.7782291286876</v>
       </c>
       <c r="M29" t="n">
-        <v>605.7782291286876</v>
+        <v>77.809162844192</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>80.04761793701638</v>
       </c>
       <c r="O29" t="n">
-        <v>569.3506049000359</v>
+        <v>405.224164699091</v>
       </c>
       <c r="P29" t="n">
-        <v>305.3801163907128</v>
+        <v>478.8648071018084</v>
       </c>
       <c r="Q29" t="n">
-        <v>325.1315577031532</v>
+        <v>325.1315577031533</v>
       </c>
       <c r="R29" t="n">
-        <v>116.4792467512898</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36884,7 +36884,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15.65944235764729</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -36902,7 +36902,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>77.2383761185008</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.07770260889022514</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>123.9476017875819</v>
+        <v>88.29599327914272</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>128.6271295934777</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36972,16 +36972,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22.99576661480123</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.487836469547742</v>
       </c>
       <c r="H31" t="n">
-        <v>17.78354987336315</v>
+        <v>17.78354987336312</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>115.7873886630671</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>328.8652176377743</v>
       </c>
       <c r="O31" t="n">
-        <v>94.02074838039286</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>265.35379804351</v>
+        <v>89.84526573525662</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>72.95938185919302</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>22.48102138753512</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9439362532335</v>
+        <v>290.428626964329</v>
       </c>
       <c r="K32" t="n">
-        <v>60.93320717054623</v>
+        <v>482.3222435130604</v>
       </c>
       <c r="L32" t="n">
-        <v>190.7298109068269</v>
+        <v>433.6150479789219</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>459.8653793093676</v>
       </c>
       <c r="N32" t="n">
-        <v>605.7782291286876</v>
+        <v>80.04761793701627</v>
       </c>
       <c r="O32" t="n">
         <v>569.3506049000358</v>
       </c>
       <c r="P32" t="n">
-        <v>478.8648071018083</v>
+        <v>60.52648647888086</v>
       </c>
       <c r="Q32" t="n">
-        <v>259.5571862567186</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>116.4792467512897</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.243449787580175e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37127,16 +37127,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>36.03444007140541</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>40.13783064147103</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>46.3222284395276</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>96.76513670495444</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>106.5009704654433</v>
       </c>
       <c r="L33" t="n">
-        <v>84.12354609626111</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.96209332617929</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>22.99576661480108</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>37.75158002466101</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>86.82328192423081</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>95.8127496903282</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>135.5207280687253</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>155.3805269266787</v>
       </c>
       <c r="O34" t="n">
-        <v>94.02074838039275</v>
+        <v>241.7522083433276</v>
       </c>
       <c r="P34" t="n">
-        <v>91.86910733241447</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.95580584471092</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>334.1473246870152</v>
+        <v>114.3217249633192</v>
       </c>
       <c r="K35" t="n">
-        <v>170.0002486026736</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="L35" t="n">
         <v>107.8588574971179</v>
@@ -37318,19 +37318,19 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>118.029066981153</v>
+      </c>
+      <c r="P35" t="n">
         <v>459.3282522180201</v>
       </c>
-      <c r="P35" t="n">
-        <v>53.12485041654017</v>
-      </c>
       <c r="Q35" t="n">
-        <v>368.8502554258393</v>
+        <v>234.4436349695763</v>
       </c>
       <c r="R35" t="n">
         <v>160.1979444739758</v>
       </c>
       <c r="S35" t="n">
-        <v>43.71869772268603</v>
+        <v>43.71869772268597</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37373,7 +37373,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>31.22905778758214</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.22905778758225</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>66.71446433748724</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>130.541979646917</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>103.6222817546471</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>7.938368252508189</v>
+        <v>91.8691073324145</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>9.703423149851133</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>47.78992202555186</v>
+        <v>66.19971911022131</v>
       </c>
       <c r="J38" t="n">
-        <v>114.3217249633192</v>
+        <v>114.3217249633193</v>
       </c>
       <c r="K38" t="n">
-        <v>412.4434530826686</v>
+        <v>104.6519048932324</v>
       </c>
       <c r="L38" t="n">
-        <v>107.8588574971179</v>
+        <v>433.6150479789219</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>84.2463295765246</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>220.678416283305</v>
       </c>
       <c r="O38" t="n">
-        <v>459.3282522180201</v>
+        <v>118.0290669811531</v>
       </c>
       <c r="P38" t="n">
         <v>104.245184201567</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>31.22905778758208</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,13 +37692,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>61.50224759604919</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.47027774734717</v>
       </c>
       <c r="J40" t="n">
-        <v>130.541979646917</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>13.15058499394601</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>114.0211113397138</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>9.703423149851218</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>66.1997191102213</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>114.3217249633192</v>
+        <v>114.3217249633194</v>
       </c>
       <c r="K41" t="n">
-        <v>104.6519048932324</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>107.8588574971179</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="M41" t="n">
-        <v>121.527860566878</v>
+        <v>411.7281957993595</v>
       </c>
       <c r="N41" t="n">
-        <v>459.3282522180201</v>
+        <v>123.7663156597025</v>
       </c>
       <c r="O41" t="n">
-        <v>459.3282522180201</v>
+        <v>118.0290669811532</v>
       </c>
       <c r="P41" t="n">
-        <v>104.245184201567</v>
+        <v>104.2451842015671</v>
       </c>
       <c r="Q41" t="n">
-        <v>177.1528257048565</v>
+        <v>368.8502554258395</v>
       </c>
       <c r="R41" t="n">
-        <v>104.1397102375135</v>
+        <v>74.76659863909882</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>43.71869772268614</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>31.22905778758191</v>
       </c>
       <c r="J42" t="n">
-        <v>31.22905778758208</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>139.5314474130144</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>65.66336482389782</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>91.52030866951451</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>113.6745035673972</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>66.19971911022121</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>334.1473246870151</v>
+        <v>334.1473246870152</v>
       </c>
       <c r="K44" t="n">
-        <v>386.6942748941649</v>
+        <v>104.6519048932324</v>
       </c>
       <c r="L44" t="n">
-        <v>107.8588574971178</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="M44" t="n">
+        <v>121.5278605668781</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>43.01328726295527</v>
+      </c>
+      <c r="P44" t="n">
         <v>459.3282522180201</v>
       </c>
-      <c r="N44" t="n">
-        <v>123.7663156597023</v>
-      </c>
-      <c r="O44" t="n">
-        <v>118.029066981153</v>
-      </c>
-      <c r="P44" t="n">
-        <v>104.2451842015669</v>
-      </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>92.84076756796328</v>
       </c>
       <c r="R44" t="n">
-        <v>74.76659863909862</v>
+        <v>160.1979444739759</v>
       </c>
       <c r="S44" t="n">
-        <v>43.71869772268597</v>
+        <v>43.71869772268606</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>31.22905778758225</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38120,7 +38120,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>31.22905778758208</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>139.5314474130143</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>57.75194298398208</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>65.66336482389845</v>
+        <v>137.7394461030789</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.703423149851218</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
